--- a/sorm4j-jmh/public/result/jmh-results.xlsx
+++ b/sorm4j-jmh/public/result/jmh-results.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20372"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\home\ws\sorm4j\sorm4j-jmh\result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\home\ws\sorm4j\sorm4j-jmh\public\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E688E353-D9F1-485E-91EC-46CCC2F87E23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CF36E7-B85A-462E-9815-C84D33F70AC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="14520" xr2:uid="{9D1FDE6F-6CE7-48B5-8FE2-8070845FD5C3}"/>
   </bookViews>
   <sheets>
-    <sheet name="1.3.5" sheetId="3" r:id="rId1"/>
-    <sheet name="1.3.3" sheetId="2" r:id="rId2"/>
-    <sheet name="1.2.3" sheetId="1" r:id="rId3"/>
+    <sheet name="1.4.0-rc7" sheetId="5" r:id="rId1"/>
+    <sheet name="1.3.5" sheetId="3" r:id="rId2"/>
+    <sheet name="1.3.3" sheetId="2" r:id="rId3"/>
+    <sheet name="1.2.3" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="34">
   <si>
     <t>apacheDbUtils</t>
   </si>
@@ -135,6 +136,14 @@
     <t>Spring JdbcTemplate</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ReadAll</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ReadOne</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -200,7 +209,10 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -322,7 +334,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'1.3.5'!$H$29:$H$32</c:f>
+              <c:f>'1.4.0-rc7'!$H$29:$H$32</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -342,28 +354,28 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.3.5'!$J$29:$J$32</c:f>
+              <c:f>'1.4.0-rc7'!$J$29:$J$32</c:f>
               <c:numCache>
                 <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6.1</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.2</c:v>
+                  <c:v>5.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.8</c:v>
+                  <c:v>9.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.6</c:v>
+                  <c:v>11.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-05E5-4B51-A21A-9730EBE5510E}"/>
+              <c16:uniqueId val="{00000000-F172-4615-BB68-9EEE41EA10B5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -540,6 +552,1300 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Read</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>(microsec/operation)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.3.3'!$H$29:$H$36</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Hand coded (baseline)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sorm4j</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sql2o</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>JDBI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>JOOQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MyBatis</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Spring JDBCTemplate</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Apache DbUtils</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.3.3'!$I$29:$I$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9FEC-4766-90AA-E4932EDD6243}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="747140943"/>
+        <c:axId val="639773647"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="747140943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="639773647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="639773647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="747140943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Read multi</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>row (microsec/operation)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.3.3'!$H$29:$H$34</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Hand coded (baseline)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sorm4j</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sql2o</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>JDBI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>JOOQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MyBatis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.3.3'!$K$29:$K$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5240</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4137</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6463</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14285</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12827</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5F7F-43F9-B6BC-EB66E5205D02}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="747140943"/>
+        <c:axId val="639773647"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="747140943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="639773647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="639773647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="747140943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Insert multirow</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t> (microsec/operation)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.3.3'!$H$29:$H$32</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Hand coded (baseline)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sorm4j</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sql2o</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>JDBI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.3.3'!$L$29:$L$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>23397</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22660</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45486</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42698</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0FEF-47CB-BC38-A1B33397585E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="747140943"/>
+        <c:axId val="639773647"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="747140943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="639773647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="639773647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="747140943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Insert</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>(microsec/operation)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.2.3'!$H$29:$H$32</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Hand coded (baseline)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sorm4j</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sql2o</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>JDBI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.2.3'!$J$29:$J$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-762D-4DE1-847C-0D27F93D2508}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="747140943"/>
+        <c:axId val="639773647"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="747140943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="639773647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="639773647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="747140943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -879,7 +2185,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -1204,7 +2510,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -1616,6 +2922,1300 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
+              <c:f>'1.4.0-rc7'!$H$29:$H$36</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Hand coded (baseline)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sorm4j</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sql2o</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>JDBI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>JOOQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MyBatis</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Spring JdbcTemplate</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Apache DbUtils</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.4.0-rc7'!$I$29:$I$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-51AD-4854-B67F-07F1F8D9A525}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="747140943"/>
+        <c:axId val="639773647"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="747140943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="639773647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="639773647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="747140943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Read multi</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>row (microsec/operation)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.4.0-rc7'!$H$29:$H$34</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Hand coded (baseline)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sorm4j</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sql2o</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>JDBI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>JOOQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MyBatis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.4.0-rc7'!$K$29:$K$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3571</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3613</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4114</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4946</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14491</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9976</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AD49-4376-B48F-D2658A068B63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="747140943"/>
+        <c:axId val="639773647"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="747140943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="639773647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="639773647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="747140943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Insert multirow</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t> (microsec/operation)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.4.0-rc7'!$H$29:$H$32</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Hand coded (baseline)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sorm4j</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sql2o</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>JDBI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.4.0-rc7'!$L$29:$L$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>22376</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22475</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37147</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8EB7-4A43-BB94-B4E400899CDD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="747140943"/>
+        <c:axId val="639773647"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="747140943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="639773647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="639773647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="747140943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Insert</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>(microsec/operation)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.3.5'!$H$29:$H$32</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Hand coded (baseline)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sorm4j</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sql2o</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>JDBI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.3.5'!$J$29:$J$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-05E5-4B51-A21A-9730EBE5510E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="747140943"/>
+        <c:axId val="639773647"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="747140943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="639773647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="639773647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0_);[Red]\(0.0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="747140943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Read</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>(microsec/operation)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
               <c:f>'1.3.5'!$H$29:$H$36</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
@@ -1857,7 +4457,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -2182,7 +4782,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -2495,7 +5095,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -2811,1300 +5411,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>Read</a:t>
-            </a:r>
-            <a:br>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-            </a:br>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
-              <a:t>(microsec/operation)</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'1.3.3'!$H$29:$H$36</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Hand coded (baseline)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sorm4j</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sql2o</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>JDBI</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>JOOQ</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MyBatis</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Spring JDBCTemplate</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Apache DbUtils</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'1.3.3'!$I$29:$I$36</c:f>
-              <c:numCache>
-                <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5.9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>35.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10.3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9FEC-4766-90AA-E4932EDD6243}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="747140943"/>
-        <c:axId val="639773647"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="747140943"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="639773647"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="639773647"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="747140943"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>Read multi</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
-              <a:t>row (microsec/operation)</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'1.3.3'!$H$29:$H$34</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Hand coded (baseline)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sorm4j</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sql2o</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>JDBI</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>JOOQ</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MyBatis</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'1.3.3'!$K$29:$K$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>5240</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4137</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5332</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6463</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14285</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12827</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5F7F-43F9-B6BC-EB66E5205D02}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="747140943"/>
-        <c:axId val="639773647"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="747140943"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="639773647"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="639773647"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="747140943"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>Insert multirow</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
-              <a:t> (microsec/operation)</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'1.3.3'!$H$29:$H$32</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Hand coded (baseline)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sorm4j</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sql2o</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>JDBI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'1.3.3'!$L$29:$L$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>23397</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22660</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45486</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42698</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0FEF-47CB-BC38-A1B33397585E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="747140943"/>
-        <c:axId val="639773647"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="747140943"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="639773647"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="639773647"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="747140943"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>Insert</a:t>
-            </a:r>
-            <a:br>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-            </a:br>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
-              <a:t>(microsec/operation)</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'1.2.3'!$H$29:$H$32</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Hand coded (baseline)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sorm4j</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sql2o</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>JDBI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'1.2.3'!$J$29:$J$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>6.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-762D-4DE1-847C-0D27F93D2508}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="747140943"/>
-        <c:axId val="639773647"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="747140943"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="639773647"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="639773647"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="747140943"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4226,6 +5532,166 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6597,7 +8063,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7100,7 +8566,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7603,7 +9069,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8106,7 +9572,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8609,7 +10075,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9112,7 +10578,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9615,7 +11081,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10118,7 +11584,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10621,7 +12087,2176 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1136925</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>110175</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E56BF36-983D-40BB-A4EA-BD0BA215ED53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>654825</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>81600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{118BF7F6-5CBF-4C07-9D35-520C016ED766}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>159525</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>167326</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB1BFB63-2787-4B4B-847A-02ACF26C57E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>241575</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>148275</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="グラフ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8929341-0B45-4B7D-804A-B907036578E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10778,7 +14413,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10935,7 +14570,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11093,6 +14728,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6482DFFA-EEF8-42ED-B03C-076350F6DC81}" name="テーブル1345" displayName="テーブル1345" ref="A1:E23" totalsRowShown="0">
+  <autoFilter ref="A1:E23" xr:uid="{373D6382-5638-4456-A6E1-BFB64FFC50EB}"/>
+  <sortState ref="A2:E23">
+    <sortCondition ref="B1:B23"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{71451F9A-3AD3-4846-BA33-20E74E7DA5B6}" name="lib"/>
+    <tableColumn id="2" xr3:uid="{32F8D775-D6E0-43D9-849D-3A32EA2CD688}" name="task"/>
+    <tableColumn id="5" xr3:uid="{66EB42AC-EDA7-4981-9289-15B04796D7D7}" name="lib and task" dataDxfId="0">
+      <calculatedColumnFormula>CONCATENATE(テーブル1345[[#This Row],[lib]],テーブル1345[[#This Row],[task]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{7162A802-6D1F-4902-A6AB-6A3528728430}" name="duration"/>
+    <tableColumn id="4" xr3:uid="{DFC92815-421F-4106-8D1B-1844ECDDB77A}" name="error"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{374BC028-046E-41DD-BDE2-60820EC6950B}" name="テーブル134" displayName="テーブル134" ref="A1:E23" totalsRowShown="0">
   <autoFilter ref="A1:E23" xr:uid="{373D6382-5638-4456-A6E1-BFB64FFC50EB}"/>
   <sortState ref="A2:E23">
@@ -11101,7 +14755,7 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D8392E82-4081-4F85-8F4E-C1DD0A819332}" name="lib"/>
     <tableColumn id="2" xr3:uid="{2F8D636A-574A-4027-963F-0FC9968E2894}" name="task"/>
-    <tableColumn id="5" xr3:uid="{37C07621-A2BA-443C-9C7B-440CFC442C87}" name="lib and task" dataDxfId="2">
+    <tableColumn id="5" xr3:uid="{37C07621-A2BA-443C-9C7B-440CFC442C87}" name="lib and task" dataDxfId="3">
       <calculatedColumnFormula>CONCATENATE(テーブル134[[#This Row],[lib]],テーブル134[[#This Row],[task]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{7B7A49A3-80E7-4FCE-95B6-9598DB5220E1}" name="duration"/>
@@ -11111,7 +14765,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6FF856B7-87CB-42F1-B811-6D2A4CA1C1D6}" name="テーブル13" displayName="テーブル13" ref="A1:E23" totalsRowShown="0">
   <autoFilter ref="A1:E23" xr:uid="{373D6382-5638-4456-A6E1-BFB64FFC50EB}"/>
   <sortState ref="A2:E23">
@@ -11120,7 +14774,7 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8CFB39E7-B247-4411-A62D-809545DB6450}" name="lib"/>
     <tableColumn id="2" xr3:uid="{5AD682B0-8F43-417A-BD50-1905AEF690E8}" name="task"/>
-    <tableColumn id="5" xr3:uid="{DBF65F0E-23DE-48C4-8D88-535B3EDFCCEE}" name="lib and task" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{DBF65F0E-23DE-48C4-8D88-535B3EDFCCEE}" name="lib and task" dataDxfId="2">
       <calculatedColumnFormula>CONCATENATE(テーブル13[[#This Row],[lib]],テーブル13[[#This Row],[task]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{EACA170B-3B26-44BA-A30D-2FC27608DB9D}" name="duration"/>
@@ -11130,7 +14784,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B3DFB630-8B09-4E21-9911-22AE76885298}" name="テーブル1" displayName="テーブル1" ref="A1:E23" totalsRowShown="0">
   <autoFilter ref="A1:E23" xr:uid="{373D6382-5638-4456-A6E1-BFB64FFC50EB}"/>
   <sortState ref="A2:E23">
@@ -11139,7 +14793,7 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{BDA0C84A-8310-466D-822F-3BAED5ADE7C7}" name="lib"/>
     <tableColumn id="2" xr3:uid="{B941DBC3-F5D3-43CF-882A-BD95A92D813D}" name="task"/>
-    <tableColumn id="5" xr3:uid="{44CBE539-07CA-447E-A480-F3EAD52E0CF4}" name="lib and task" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{44CBE539-07CA-447E-A480-F3EAD52E0CF4}" name="lib and task" dataDxfId="1">
       <calculatedColumnFormula>CONCATENATE(テーブル1[[#This Row],[lib]],テーブル1[[#This Row],[task]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{33AB3EE7-56D8-4457-8A4C-44DD4D0C79CA}" name="duration"/>
@@ -11445,11 +15099,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AEA92FB-C8A3-4D71-8FD1-F1E3E1533838}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561FE2CA-532F-468B-B85D-2BC2BE90541A}">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -11487,14 +15141,14 @@
         <v>14</v>
       </c>
       <c r="I1" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
         <v>4</v>
@@ -11502,198 +15156,198 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="str">
-        <f>CONCATENATE(テーブル134[[#This Row],[lib]],テーブル134[[#This Row],[task]])</f>
-        <v>apacheDbUtilsSelectByPrimaryKey</v>
+        <f>CONCATENATE(テーブル1345[[#This Row],[lib]],テーブル1345[[#This Row],[task]])</f>
+        <v>handCodedInsert</v>
       </c>
       <c r="D2">
-        <v>7.2853890000000003</v>
+        <v>4.8451399999999998</v>
       </c>
       <c r="E2">
-        <v>0.53251400000000004</v>
+        <v>0.40764899999999998</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I2" s="2">
-        <f>ROUND(VLOOKUP(CONCATENATE($H2,I$1),テーブル134[[#All],[lib and task]:[error]],2,FALSE),1)</f>
-        <v>5.8</v>
+        <f>ROUND(VLOOKUP(CONCATENATE($H2,I$1),テーブル1345[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>4</v>
       </c>
       <c r="K2" s="2">
-        <f>ROUND(VLOOKUP(CONCATENATE($H2,K$1),テーブル134[[#All],[lib and task]:[error]],2,FALSE),1)</f>
-        <v>6.1</v>
+        <f>ROUND(VLOOKUP(CONCATENATE($H2,K$1),テーブル1345[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>4.8</v>
       </c>
       <c r="M2">
-        <f>ROUND(VLOOKUP(CONCATENATE($H2,M$1),テーブル134[[#All],[lib and task]:[error]],2,FALSE),0)</f>
-        <v>5059</v>
+        <f>ROUND(VLOOKUP(CONCATENATE($H2,M$1),テーブル1345[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>3571</v>
       </c>
       <c r="O2">
-        <f>ROUND(VLOOKUP(CONCATENATE($H2,O$1),テーブル134[[#All],[lib and task]:[error]],2,FALSE),0)</f>
-        <v>23741</v>
+        <f>ROUND(VLOOKUP(CONCATENATE($H2,O$1),テーブル1345[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>22376</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="str">
-        <f>CONCATENATE(テーブル134[[#This Row],[lib]],テーブル134[[#This Row],[task]])</f>
-        <v>handCodedInsert</v>
+        <f>CONCATENATE(テーブル1345[[#This Row],[lib]],テーブル1345[[#This Row],[task]])</f>
+        <v>jDBIInsert</v>
       </c>
       <c r="D3">
-        <v>6.1486140000000002</v>
+        <v>11.662153999999999</v>
       </c>
       <c r="E3">
-        <v>0.32627600000000001</v>
+        <v>0.86480900000000005</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="2">
-        <f>ROUND(VLOOKUP(CONCATENATE($H3,I$1),テーブル134[[#All],[lib and task]:[error]],2,FALSE),1)</f>
-        <v>6.1</v>
+        <f>ROUND(VLOOKUP(CONCATENATE($H3,I$1),テーブル1345[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J3" t="str">
         <f t="shared" ref="J3:J9" si="0">"(" &amp;ROUND((I3-I$2)/I$2*100,0)&amp;"% slower)"</f>
-        <v>(5% slower)</v>
+        <v>(15% slower)</v>
       </c>
       <c r="K3" s="2">
-        <f>ROUND(VLOOKUP(CONCATENATE($H3,K$1),テーブル134[[#All],[lib and task]:[error]],2,FALSE),1)</f>
-        <v>7.2</v>
+        <f>ROUND(VLOOKUP(CONCATENATE($H3,K$1),テーブル1345[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>5.7</v>
       </c>
       <c r="L3" t="str">
         <f>"(" &amp;ROUND((K3-K$2)/K$2*100,0)&amp;"% slower)"</f>
-        <v>(18% slower)</v>
+        <v>(19% slower)</v>
       </c>
       <c r="M3">
-        <f>ROUND(VLOOKUP(CONCATENATE($H3,M$1),テーブル134[[#All],[lib and task]:[error]],2,FALSE),0)</f>
-        <v>4419</v>
+        <f>ROUND(VLOOKUP(CONCATENATE($H3,M$1),テーブル1345[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>3613</v>
       </c>
       <c r="N3" t="str">
         <f>"(" &amp;ROUND((M3-M$2)/M$2*100,0)&amp;"% slower)"</f>
-        <v>(-13% slower)</v>
+        <v>(1% slower)</v>
       </c>
       <c r="O3">
-        <f>ROUND(VLOOKUP(CONCATENATE($H3,O$1),テーブル134[[#All],[lib and task]:[error]],2,FALSE),0)</f>
-        <v>22753</v>
+        <f>ROUND(VLOOKUP(CONCATENATE($H3,O$1),テーブル1345[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>22475</v>
       </c>
       <c r="P3" t="str">
         <f>"(" &amp;ROUND((O3-O$2)/O$2*100,0)&amp;"% slower)"</f>
-        <v>(-4% slower)</v>
+        <v>(0% slower)</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="str">
-        <f>CONCATENATE(テーブル134[[#This Row],[lib]],テーブル134[[#This Row],[task]])</f>
-        <v>handCodedMultiRowInsert</v>
+        <f>CONCATENATE(テーブル1345[[#This Row],[lib]],テーブル1345[[#This Row],[task]])</f>
+        <v>sormInsert</v>
       </c>
       <c r="D4">
-        <v>23741.343562999999</v>
+        <v>5.6597140000000001</v>
       </c>
       <c r="E4">
-        <v>3993.8767509999998</v>
+        <v>0.32913900000000001</v>
       </c>
       <c r="H4" t="s">
         <v>11</v>
       </c>
       <c r="I4" s="2">
-        <f>ROUND(VLOOKUP(CONCATENATE($H4,I$1),テーブル134[[#All],[lib and task]:[error]],2,FALSE),1)</f>
-        <v>8.1999999999999993</v>
+        <f>ROUND(VLOOKUP(CONCATENATE($H4,I$1),テーブル1345[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>6.2</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" si="0"/>
-        <v>(41% slower)</v>
+        <v>(55% slower)</v>
       </c>
       <c r="K4" s="2">
-        <f>ROUND(VLOOKUP(CONCATENATE($H4,K$1),テーブル134[[#All],[lib and task]:[error]],2,FALSE),1)</f>
-        <v>10.8</v>
+        <f>ROUND(VLOOKUP(CONCATENATE($H4,K$1),テーブル1345[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>9.4</v>
       </c>
       <c r="L4" t="str">
         <f>"(" &amp;ROUND((K4-K$2)/K$2*100,0)&amp;"% slower)"</f>
-        <v>(77% slower)</v>
+        <v>(96% slower)</v>
       </c>
       <c r="M4">
-        <f>ROUND(VLOOKUP(CONCATENATE($H4,M$1),テーブル134[[#All],[lib and task]:[error]],2,FALSE),0)</f>
-        <v>5424</v>
+        <f>ROUND(VLOOKUP(CONCATENATE($H4,M$1),テーブル1345[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>4114</v>
       </c>
       <c r="N4" t="str">
         <f>"(" &amp;ROUND((M4-M$2)/M$2*100,0)&amp;"% slower)"</f>
-        <v>(7% slower)</v>
+        <v>(15% slower)</v>
       </c>
       <c r="O4">
-        <f>ROUND(VLOOKUP(CONCATENATE($H4,O$1),テーブル134[[#All],[lib and task]:[error]],2,FALSE),0)</f>
-        <v>45751</v>
+        <f>ROUND(VLOOKUP(CONCATENATE($H4,O$1),テーブル1345[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>43301</v>
       </c>
       <c r="P4" t="str">
         <f t="shared" ref="P4:P5" si="1">"(" &amp;ROUND((O4-O$2)/O$2*100,0)&amp;"% slower)"</f>
-        <v>(93% slower)</v>
+        <v>(94% slower)</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" t="str">
-        <f>CONCATENATE(テーブル134[[#This Row],[lib]],テーブル134[[#This Row],[task]])</f>
-        <v>handCodedSelectAll</v>
+        <f>CONCATENATE(テーブル1345[[#This Row],[lib]],テーブル1345[[#This Row],[task]])</f>
+        <v>sql2oInsert</v>
       </c>
       <c r="D5">
-        <v>5058.5569740000001</v>
+        <v>9.4169149999999995</v>
       </c>
       <c r="E5">
-        <v>59.848292000000001</v>
+        <v>0.43445600000000001</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="2">
-        <f>ROUND(VLOOKUP(CONCATENATE($H5,I$1),テーブル134[[#All],[lib and task]:[error]],2,FALSE),1)</f>
-        <v>18.399999999999999</v>
+        <f>ROUND(VLOOKUP(CONCATENATE($H5,I$1),テーブル1345[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>16.899999999999999</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="0"/>
-        <v>(217% slower)</v>
+        <v>(323% slower)</v>
       </c>
       <c r="K5" s="2">
-        <f>ROUND(VLOOKUP(CONCATENATE($H5,K$1),テーブル134[[#All],[lib and task]:[error]],2,FALSE),1)</f>
-        <v>12.6</v>
+        <f>ROUND(VLOOKUP(CONCATENATE($H5,K$1),テーブル1345[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>11.7</v>
       </c>
       <c r="L5" t="str">
         <f>"(" &amp;ROUND((K5-K$2)/K$2*100,0)&amp;"% slower)"</f>
-        <v>(107% slower)</v>
+        <v>(144% slower)</v>
       </c>
       <c r="M5">
-        <f>ROUND(VLOOKUP(CONCATENATE($H5,M$1),テーブル134[[#All],[lib and task]:[error]],2,FALSE),0)</f>
-        <v>5683</v>
+        <f>ROUND(VLOOKUP(CONCATENATE($H5,M$1),テーブル1345[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>4946</v>
       </c>
       <c r="N5" t="str">
         <f>"(" &amp;ROUND((M5-M$2)/M$2*100,0)&amp;"% slower)"</f>
-        <v>(12% slower)</v>
+        <v>(39% slower)</v>
       </c>
       <c r="O5">
-        <f>ROUND(VLOOKUP(CONCATENATE($H5,O$1),テーブル134[[#All],[lib and task]:[error]],2,FALSE),0)</f>
-        <v>39657</v>
+        <f>ROUND(VLOOKUP(CONCATENATE($H5,O$1),テーブル1345[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>37147</v>
       </c>
       <c r="P5" t="str">
         <f t="shared" si="1"/>
-        <v>(67% slower)</v>
+        <v>(66% slower)</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.4">
@@ -11701,37 +15355,37 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" t="str">
-        <f>CONCATENATE(テーブル134[[#This Row],[lib]],テーブル134[[#This Row],[task]])</f>
-        <v>handCodedSelectByPrimaryKey</v>
+        <f>CONCATENATE(テーブル1345[[#This Row],[lib]],テーブル1345[[#This Row],[task]])</f>
+        <v>handCodedMultiRowInsert</v>
       </c>
       <c r="D6">
-        <v>5.7527270000000001</v>
+        <v>22376.001503</v>
       </c>
       <c r="E6">
-        <v>0.14219899999999999</v>
+        <v>2458.3223600000001</v>
       </c>
       <c r="H6" t="s">
         <v>7</v>
       </c>
       <c r="I6" s="2">
-        <f>ROUND(VLOOKUP(CONCATENATE($H6,I$1),テーブル134[[#All],[lib and task]:[error]],2,FALSE),1)</f>
-        <v>36.6</v>
+        <f>ROUND(VLOOKUP(CONCATENATE($H6,I$1),テーブル1345[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>42.2</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
-        <v>(531% slower)</v>
+        <v>(955% slower)</v>
       </c>
       <c r="K6" s="2"/>
       <c r="M6">
-        <f>ROUND(VLOOKUP(CONCATENATE($H6,M$1),テーブル134[[#All],[lib and task]:[error]],2,FALSE),0)</f>
-        <v>14245</v>
+        <f>ROUND(VLOOKUP(CONCATENATE($H6,M$1),テーブル1345[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>14491</v>
       </c>
       <c r="N6" t="str">
         <f t="shared" ref="N6:N7" si="2">"(" &amp;ROUND((M6-M$2)/M$2*100,0)&amp;"% slower)"</f>
-        <v>(182% slower)</v>
+        <v>(306% slower)</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.4">
@@ -11739,133 +15393,133 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" t="str">
-        <f>CONCATENATE(テーブル134[[#This Row],[lib]],テーブル134[[#This Row],[task]])</f>
-        <v>jDBIInsert</v>
+        <f>CONCATENATE(テーブル1345[[#This Row],[lib]],テーブル1345[[#This Row],[task]])</f>
+        <v>jDBIMultiRowInsert</v>
       </c>
       <c r="D7">
-        <v>12.570504</v>
+        <v>37146.538079999998</v>
       </c>
       <c r="E7">
-        <v>0.67082799999999998</v>
+        <v>3744.5500360000001</v>
       </c>
       <c r="H7" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="2">
-        <f>ROUND(VLOOKUP(CONCATENATE($H7,I$1),テーブル134[[#All],[lib and task]:[error]],2,FALSE),1)</f>
-        <v>12.4</v>
+        <f>ROUND(VLOOKUP(CONCATENATE($H7,I$1),テーブル1345[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>9.6999999999999993</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="0"/>
-        <v>(114% slower)</v>
+        <v>(143% slower)</v>
       </c>
       <c r="K7" s="2"/>
       <c r="M7">
-        <f>ROUND(VLOOKUP(CONCATENATE($H7,M$1),テーブル134[[#All],[lib and task]:[error]],2,FALSE),0)</f>
-        <v>12701</v>
+        <f>ROUND(VLOOKUP(CONCATENATE($H7,M$1),テーブル1345[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>9976</v>
       </c>
       <c r="N7" t="str">
         <f t="shared" si="2"/>
-        <v>(151% slower)</v>
+        <v>(179% slower)</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="str">
-        <f>CONCATENATE(テーブル134[[#This Row],[lib]],テーブル134[[#This Row],[task]])</f>
-        <v>jDBIMultiRowInsert</v>
+        <f>CONCATENATE(テーブル1345[[#This Row],[lib]],テーブル1345[[#This Row],[task]])</f>
+        <v>sormMultiRowInsert</v>
       </c>
       <c r="D8">
-        <v>39656.563736999997</v>
+        <v>22474.771635000001</v>
       </c>
       <c r="E8">
-        <v>5785.8300280000003</v>
+        <v>2436.8635140000001</v>
       </c>
       <c r="H8" t="s">
         <v>10</v>
       </c>
       <c r="I8" s="2">
-        <f>ROUND(VLOOKUP(CONCATENATE($H8,I$1),テーブル134[[#All],[lib and task]:[error]],2,FALSE),1)</f>
-        <v>10.199999999999999</v>
+        <f>ROUND(VLOOKUP(CONCATENATE($H8,I$1),テーブル1345[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>8.4</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="0"/>
-        <v>(76% slower)</v>
+        <v>(110% slower)</v>
       </c>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="str">
-        <f>CONCATENATE(テーブル134[[#This Row],[lib]],テーブル134[[#This Row],[task]])</f>
-        <v>jDBISelectAll</v>
+        <f>CONCATENATE(テーブル1345[[#This Row],[lib]],テーブル1345[[#This Row],[task]])</f>
+        <v>sql2oMultiRowInsert</v>
       </c>
       <c r="D9">
-        <v>5683.1952090000004</v>
+        <v>43300.634526000002</v>
       </c>
       <c r="E9">
-        <v>148.51815099999999</v>
+        <v>5163.8652959999999</v>
       </c>
       <c r="H9" t="s">
         <v>0</v>
       </c>
       <c r="I9" s="2">
-        <f>ROUND(VLOOKUP(CONCATENATE($H9,I$1),テーブル134[[#All],[lib and task]:[error]],2,FALSE),1)</f>
-        <v>7.3</v>
+        <f>ROUND(VLOOKUP(CONCATENATE($H9,I$1),テーブル1345[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>5.4</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="0"/>
-        <v>(26% slower)</v>
+        <v>(35% slower)</v>
       </c>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C10" t="str">
-        <f>CONCATENATE(テーブル134[[#This Row],[lib]],テーブル134[[#This Row],[task]])</f>
-        <v>jDBISelectByPrimaryKey</v>
+        <f>CONCATENATE(テーブル1345[[#This Row],[lib]],テーブル1345[[#This Row],[task]])</f>
+        <v>handCodedReadAll</v>
       </c>
       <c r="D10">
-        <v>18.390208000000001</v>
+        <v>3571.2516179999998</v>
       </c>
       <c r="E10">
-        <v>0.258631</v>
+        <v>145.11688000000001</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C11" t="str">
-        <f>CONCATENATE(テーブル134[[#This Row],[lib]],テーブル134[[#This Row],[task]])</f>
-        <v>jOOQSelectAll</v>
+        <f>CONCATENATE(テーブル1345[[#This Row],[lib]],テーブル1345[[#This Row],[task]])</f>
+        <v>jDBIReadAll</v>
       </c>
       <c r="D11">
-        <v>14245.324316</v>
+        <v>4945.7137069999999</v>
       </c>
       <c r="E11">
-        <v>573.88876800000003</v>
+        <v>246.49102300000001</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.4">
@@ -11873,17 +15527,17 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C12" t="str">
-        <f>CONCATENATE(テーブル134[[#This Row],[lib]],テーブル134[[#This Row],[task]])</f>
-        <v>jOOQSelectByPrimaryKey</v>
+        <f>CONCATENATE(テーブル1345[[#This Row],[lib]],テーブル1345[[#This Row],[task]])</f>
+        <v>jOOQReadAll</v>
       </c>
       <c r="D12">
-        <v>36.581299999999999</v>
+        <v>14490.819862</v>
       </c>
       <c r="E12">
-        <v>2.9078490000000001</v>
+        <v>967.42855099999997</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.4">
@@ -11891,35 +15545,35 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C13" t="str">
-        <f>CONCATENATE(テーブル134[[#This Row],[lib]],テーブル134[[#This Row],[task]])</f>
-        <v>myBatisSelectAll</v>
+        <f>CONCATENATE(テーブル1345[[#This Row],[lib]],テーブル1345[[#This Row],[task]])</f>
+        <v>myBatisReadAll</v>
       </c>
       <c r="D13">
-        <v>12700.930425</v>
+        <v>9976.3687740000005</v>
       </c>
       <c r="E13">
-        <v>208.128187</v>
+        <v>258.24264799999997</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C14" t="str">
-        <f>CONCATENATE(テーブル134[[#This Row],[lib]],テーブル134[[#This Row],[task]])</f>
-        <v>myBatisSelectByPrimaryKey</v>
+        <f>CONCATENATE(テーブル1345[[#This Row],[lib]],テーブル1345[[#This Row],[task]])</f>
+        <v>sormReadAll</v>
       </c>
       <c r="D14">
-        <v>12.359835</v>
+        <v>3612.8939569999998</v>
       </c>
       <c r="E14">
-        <v>0.41625200000000001</v>
+        <v>177.08955499999999</v>
       </c>
       <c r="H14" t="s">
         <v>16</v>
@@ -11939,175 +15593,175 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="C15" t="str">
-        <f>CONCATENATE(テーブル134[[#This Row],[lib]],テーブル134[[#This Row],[task]])</f>
-        <v>sormInsert</v>
+        <f>CONCATENATE(テーブル1345[[#This Row],[lib]],テーブル1345[[#This Row],[task]])</f>
+        <v>sql2oReadAll</v>
       </c>
       <c r="D15">
-        <v>7.2209620000000001</v>
+        <v>4114.2102349999996</v>
       </c>
       <c r="E15">
-        <v>0.230794</v>
+        <v>183.64933099999999</v>
       </c>
       <c r="H15" t="s">
         <v>25</v>
       </c>
       <c r="I15" t="str">
         <f>_xlfn.CONCAT(TEXT(I2,".0")," ",J2)</f>
-        <v xml:space="preserve">5.8 </v>
+        <v xml:space="preserve">4.0 </v>
       </c>
       <c r="J15" t="str">
         <f>_xlfn.CONCAT(TEXT(K2,".0")," ",L2)</f>
-        <v xml:space="preserve">6.1 </v>
+        <v xml:space="preserve">4.8 </v>
       </c>
       <c r="K15" t="str">
         <f>_xlfn.CONCAT(M2," ",N2)</f>
-        <v xml:space="preserve">5059 </v>
+        <v xml:space="preserve">3571 </v>
       </c>
       <c r="L15" t="str">
         <f>_xlfn.CONCAT(O2," ",P2)</f>
-        <v xml:space="preserve">23741 </v>
+        <v xml:space="preserve">22376 </v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C16" t="str">
-        <f>CONCATENATE(テーブル134[[#This Row],[lib]],テーブル134[[#This Row],[task]])</f>
-        <v>sormMultiRowInsert</v>
+        <f>CONCATENATE(テーブル1345[[#This Row],[lib]],テーブル1345[[#This Row],[task]])</f>
+        <v>apacheDbUtilsReadOne</v>
       </c>
       <c r="D16">
-        <v>22752.986936000001</v>
+        <v>5.4387319999999999</v>
       </c>
       <c r="E16">
-        <v>4353.5374650000003</v>
+        <v>0.15130299999999999</v>
       </c>
       <c r="H16" t="s">
         <v>30</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" ref="I16:I22" si="3">_xlfn.CONCAT(TEXT(I3,".0")," ",J3)</f>
-        <v>6.1 (5% slower)</v>
+        <v>4.6 (15% slower)</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" ref="J16:J18" si="4">_xlfn.CONCAT(TEXT(K3,".0")," ",L3)</f>
-        <v>7.2 (18% slower)</v>
+        <v>5.7 (19% slower)</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" ref="K16:K20" si="5">_xlfn.CONCAT(M3," ",N3)</f>
-        <v>4419 (-13% slower)</v>
+        <v>3613 (1% slower)</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" ref="L16:L18" si="6">_xlfn.CONCAT(O3," ",P3)</f>
-        <v>22753 (-4% slower)</v>
+        <v>22475 (0% slower)</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C17" t="str">
-        <f>CONCATENATE(テーブル134[[#This Row],[lib]],テーブル134[[#This Row],[task]])</f>
-        <v>sormSelectAll</v>
+        <f>CONCATENATE(テーブル1345[[#This Row],[lib]],テーブル1345[[#This Row],[task]])</f>
+        <v>handCodedReadOne</v>
       </c>
       <c r="D17">
-        <v>4418.5830830000004</v>
+        <v>4.0353120000000002</v>
       </c>
       <c r="E17">
-        <v>35.324876000000003</v>
+        <v>0.102657</v>
       </c>
       <c r="H17" t="s">
         <v>26</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="3"/>
-        <v>8.2 (41% slower)</v>
+        <v>6.2 (55% slower)</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" si="4"/>
-        <v>10.8 (77% slower)</v>
+        <v>9.4 (96% slower)</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="5"/>
-        <v>5424 (7% slower)</v>
+        <v>4114 (15% slower)</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="6"/>
-        <v>45751 (93% slower)</v>
+        <v>43301 (94% slower)</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="C18" t="str">
-        <f>CONCATENATE(テーブル134[[#This Row],[lib]],テーブル134[[#This Row],[task]])</f>
-        <v>sormSelectByPrimaryKey</v>
+        <f>CONCATENATE(テーブル1345[[#This Row],[lib]],テーブル1345[[#This Row],[task]])</f>
+        <v>jDBIReadOne</v>
       </c>
       <c r="D18">
-        <v>6.1034509999999997</v>
+        <v>16.872240999999999</v>
       </c>
       <c r="E18">
-        <v>0.15953700000000001</v>
+        <v>1.516043</v>
       </c>
       <c r="H18" t="s">
         <v>27</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="3"/>
-        <v>18.4 (217% slower)</v>
+        <v>16.9 (323% slower)</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" si="4"/>
-        <v>12.6 (107% slower)</v>
+        <v>11.7 (144% slower)</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="5"/>
-        <v>5683 (12% slower)</v>
+        <v>4946 (39% slower)</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="6"/>
-        <v>39657 (67% slower)</v>
+        <v>37147 (66% slower)</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="C19" t="str">
-        <f>CONCATENATE(テーブル134[[#This Row],[lib]],テーブル134[[#This Row],[task]])</f>
-        <v>springJdbcTemplateSelectByPrimaryKey</v>
+        <f>CONCATENATE(テーブル1345[[#This Row],[lib]],テーブル1345[[#This Row],[task]])</f>
+        <v>jOOQReadOne</v>
       </c>
       <c r="D19">
-        <v>10.155696000000001</v>
+        <v>42.155106000000004</v>
       </c>
       <c r="E19">
-        <v>0.12836900000000001</v>
+        <v>4.4504029999999997</v>
       </c>
       <c r="H19" t="s">
         <v>21</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="3"/>
-        <v>36.6 (531% slower)</v>
+        <v>42.2 (955% slower)</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" ref="J19:J22" si="7">_xlfn.CONCAT(K6," ",L6)</f>
@@ -12115,32 +15769,32 @@
       </c>
       <c r="K19" t="str">
         <f t="shared" si="5"/>
-        <v>14245 (182% slower)</v>
+        <v>14491 (306% slower)</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C20" t="str">
-        <f>CONCATENATE(テーブル134[[#This Row],[lib]],テーブル134[[#This Row],[task]])</f>
-        <v>sql2oInsert</v>
+        <f>CONCATENATE(テーブル1345[[#This Row],[lib]],テーブル1345[[#This Row],[task]])</f>
+        <v>myBatisReadOne</v>
       </c>
       <c r="D20">
-        <v>10.814175000000001</v>
+        <v>9.6885300000000001</v>
       </c>
       <c r="E20">
-        <v>0.11949899999999999</v>
+        <v>0.60050800000000004</v>
       </c>
       <c r="H20" t="s">
         <v>22</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="3"/>
-        <v>12.4 (114% slower)</v>
+        <v>9.7 (143% slower)</v>
       </c>
       <c r="J20" t="str">
         <f t="shared" si="7"/>
@@ -12148,32 +15802,32 @@
       </c>
       <c r="K20" t="str">
         <f t="shared" si="5"/>
-        <v>12701 (151% slower)</v>
+        <v>9976 (179% slower)</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C21" t="str">
-        <f>CONCATENATE(テーブル134[[#This Row],[lib]],テーブル134[[#This Row],[task]])</f>
-        <v>sql2oMultiRowInsert</v>
+        <f>CONCATENATE(テーブル1345[[#This Row],[lib]],テーブル1345[[#This Row],[task]])</f>
+        <v>sormReadOne</v>
       </c>
       <c r="D21">
-        <v>45750.576427</v>
+        <v>4.5559399999999997</v>
       </c>
       <c r="E21">
-        <v>7061.179024</v>
+        <v>0.14735799999999999</v>
       </c>
       <c r="H21" t="s">
         <v>31</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="3"/>
-        <v>10.2 (76% slower)</v>
+        <v>8.4 (110% slower)</v>
       </c>
       <c r="J21" t="str">
         <f t="shared" si="7"/>
@@ -12182,27 +15836,27 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C22" t="str">
-        <f>CONCATENATE(テーブル134[[#This Row],[lib]],テーブル134[[#This Row],[task]])</f>
-        <v>sql2oSelectAll</v>
+        <f>CONCATENATE(テーブル1345[[#This Row],[lib]],テーブル1345[[#This Row],[task]])</f>
+        <v>springJdbcTemplateReadOne</v>
       </c>
       <c r="D22">
-        <v>5423.7498500000002</v>
+        <v>8.3828910000000008</v>
       </c>
       <c r="E22">
-        <v>97.186087999999998</v>
+        <v>0.26366200000000001</v>
       </c>
       <c r="H22" t="s">
         <v>24</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="3"/>
-        <v>7.3 (26% slower)</v>
+        <v>5.4 (35% slower)</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" si="7"/>
@@ -12214,17 +15868,17 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="C23" t="str">
-        <f>CONCATENATE(テーブル134[[#This Row],[lib]],テーブル134[[#This Row],[task]])</f>
-        <v>sql2oSelectByPrimaryKey</v>
+        <f>CONCATENATE(テーブル1345[[#This Row],[lib]],テーブル1345[[#This Row],[task]])</f>
+        <v>sql2oReadOne</v>
       </c>
       <c r="D23">
-        <v>8.1616350000000004</v>
+        <v>6.2472669999999999</v>
       </c>
       <c r="E23">
-        <v>0.15326899999999999</v>
+        <v>0.23006299999999999</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.4">
@@ -12250,19 +15904,19 @@
       </c>
       <c r="I29" s="2">
         <f>I2</f>
-        <v>5.8</v>
+        <v>4</v>
       </c>
       <c r="J29" s="3">
         <f>K2</f>
-        <v>6.1</v>
+        <v>4.8</v>
       </c>
       <c r="K29">
         <f>M2</f>
-        <v>5059</v>
+        <v>3571</v>
       </c>
       <c r="L29">
         <f>O2</f>
-        <v>23741</v>
+        <v>22376</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.4">
@@ -12271,19 +15925,19 @@
       </c>
       <c r="I30" s="2">
         <f t="shared" ref="I30:I36" si="8">I3</f>
-        <v>6.1</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J30" s="3">
         <f t="shared" ref="J30:J36" si="9">K3</f>
-        <v>7.2</v>
+        <v>5.7</v>
       </c>
       <c r="K30">
         <f t="shared" ref="K30:K36" si="10">M3</f>
-        <v>4419</v>
+        <v>3613</v>
       </c>
       <c r="L30">
         <f t="shared" ref="L30:L36" si="11">O3</f>
-        <v>22753</v>
+        <v>22475</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.4">
@@ -12292,19 +15946,19 @@
       </c>
       <c r="I31" s="2">
         <f t="shared" si="8"/>
-        <v>8.1999999999999993</v>
+        <v>6.2</v>
       </c>
       <c r="J31" s="3">
         <f t="shared" si="9"/>
-        <v>10.8</v>
+        <v>9.4</v>
       </c>
       <c r="K31">
         <f t="shared" si="10"/>
-        <v>5424</v>
+        <v>4114</v>
       </c>
       <c r="L31">
         <f t="shared" si="11"/>
-        <v>45751</v>
+        <v>43301</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.4">
@@ -12313,19 +15967,19 @@
       </c>
       <c r="I32" s="2">
         <f t="shared" si="8"/>
-        <v>18.399999999999999</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="J32" s="3">
         <f t="shared" si="9"/>
-        <v>12.6</v>
+        <v>11.7</v>
       </c>
       <c r="K32">
         <f t="shared" si="10"/>
-        <v>5683</v>
+        <v>4946</v>
       </c>
       <c r="L32">
         <f t="shared" si="11"/>
-        <v>39657</v>
+        <v>37147</v>
       </c>
     </row>
     <row r="33" spans="8:12" x14ac:dyDescent="0.4">
@@ -12334,7 +15988,7 @@
       </c>
       <c r="I33" s="2">
         <f t="shared" si="8"/>
-        <v>36.6</v>
+        <v>42.2</v>
       </c>
       <c r="J33" s="3">
         <f t="shared" si="9"/>
@@ -12342,7 +15996,7 @@
       </c>
       <c r="K33">
         <f t="shared" si="10"/>
-        <v>14245</v>
+        <v>14491</v>
       </c>
       <c r="L33">
         <f t="shared" si="11"/>
@@ -12355,7 +16009,7 @@
       </c>
       <c r="I34" s="2">
         <f t="shared" si="8"/>
-        <v>12.4</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="J34" s="3">
         <f t="shared" si="9"/>
@@ -12363,7 +16017,7 @@
       </c>
       <c r="K34">
         <f t="shared" si="10"/>
-        <v>12701</v>
+        <v>9976</v>
       </c>
       <c r="L34">
         <f t="shared" si="11"/>
@@ -12376,7 +16030,7 @@
       </c>
       <c r="I35" s="2">
         <f t="shared" si="8"/>
-        <v>10.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="J35" s="3">
         <f t="shared" si="9"/>
@@ -12397,7 +16051,7 @@
       </c>
       <c r="I36" s="2">
         <f t="shared" si="8"/>
-        <v>7.3</v>
+        <v>5.4</v>
       </c>
       <c r="J36" s="3">
         <f t="shared" si="9"/>
@@ -12424,6 +16078,985 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AEA92FB-C8A3-4D71-8FD1-F1E3E1533838}">
+  <dimension ref="A1:P36"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="5.625" customWidth="1"/>
+    <col min="8" max="8" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.625" customWidth="1"/>
+    <col min="15" max="15" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="str">
+        <f>CONCATENATE(テーブル134[[#This Row],[lib]],テーブル134[[#This Row],[task]])</f>
+        <v>apacheDbUtilsSelectByPrimaryKey</v>
+      </c>
+      <c r="D2">
+        <v>7.2853890000000003</v>
+      </c>
+      <c r="E2">
+        <v>0.53251400000000004</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2">
+        <f>ROUND(VLOOKUP(CONCATENATE($H2,I$1),テーブル134[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>5.8</v>
+      </c>
+      <c r="K2" s="2">
+        <f>ROUND(VLOOKUP(CONCATENATE($H2,K$1),テーブル134[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>6.1</v>
+      </c>
+      <c r="M2">
+        <f>ROUND(VLOOKUP(CONCATENATE($H2,M$1),テーブル134[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>5059</v>
+      </c>
+      <c r="O2">
+        <f>ROUND(VLOOKUP(CONCATENATE($H2,O$1),テーブル134[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>23741</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="str">
+        <f>CONCATENATE(テーブル134[[#This Row],[lib]],テーブル134[[#This Row],[task]])</f>
+        <v>handCodedInsert</v>
+      </c>
+      <c r="D3">
+        <v>6.1486140000000002</v>
+      </c>
+      <c r="E3">
+        <v>0.32627600000000001</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="2">
+        <f>ROUND(VLOOKUP(CONCATENATE($H3,I$1),テーブル134[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>6.1</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J9" si="0">"(" &amp;ROUND((I3-I$2)/I$2*100,0)&amp;"% slower)"</f>
+        <v>(5% slower)</v>
+      </c>
+      <c r="K3" s="2">
+        <f>ROUND(VLOOKUP(CONCATENATE($H3,K$1),テーブル134[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>7.2</v>
+      </c>
+      <c r="L3" t="str">
+        <f>"(" &amp;ROUND((K3-K$2)/K$2*100,0)&amp;"% slower)"</f>
+        <v>(18% slower)</v>
+      </c>
+      <c r="M3">
+        <f>ROUND(VLOOKUP(CONCATENATE($H3,M$1),テーブル134[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>4419</v>
+      </c>
+      <c r="N3" t="str">
+        <f>"(" &amp;ROUND((M3-M$2)/M$2*100,0)&amp;"% slower)"</f>
+        <v>(-13% slower)</v>
+      </c>
+      <c r="O3">
+        <f>ROUND(VLOOKUP(CONCATENATE($H3,O$1),テーブル134[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>22753</v>
+      </c>
+      <c r="P3" t="str">
+        <f>"(" &amp;ROUND((O3-O$2)/O$2*100,0)&amp;"% slower)"</f>
+        <v>(-4% slower)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="str">
+        <f>CONCATENATE(テーブル134[[#This Row],[lib]],テーブル134[[#This Row],[task]])</f>
+        <v>handCodedMultiRowInsert</v>
+      </c>
+      <c r="D4">
+        <v>23741.343562999999</v>
+      </c>
+      <c r="E4">
+        <v>3993.8767509999998</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="2">
+        <f>ROUND(VLOOKUP(CONCATENATE($H4,I$1),テーブル134[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>(41% slower)</v>
+      </c>
+      <c r="K4" s="2">
+        <f>ROUND(VLOOKUP(CONCATENATE($H4,K$1),テーブル134[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>10.8</v>
+      </c>
+      <c r="L4" t="str">
+        <f>"(" &amp;ROUND((K4-K$2)/K$2*100,0)&amp;"% slower)"</f>
+        <v>(77% slower)</v>
+      </c>
+      <c r="M4">
+        <f>ROUND(VLOOKUP(CONCATENATE($H4,M$1),テーブル134[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>5424</v>
+      </c>
+      <c r="N4" t="str">
+        <f>"(" &amp;ROUND((M4-M$2)/M$2*100,0)&amp;"% slower)"</f>
+        <v>(7% slower)</v>
+      </c>
+      <c r="O4">
+        <f>ROUND(VLOOKUP(CONCATENATE($H4,O$1),テーブル134[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>45751</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" ref="P4:P5" si="1">"(" &amp;ROUND((O4-O$2)/O$2*100,0)&amp;"% slower)"</f>
+        <v>(93% slower)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="str">
+        <f>CONCATENATE(テーブル134[[#This Row],[lib]],テーブル134[[#This Row],[task]])</f>
+        <v>handCodedSelectAll</v>
+      </c>
+      <c r="D5">
+        <v>5058.5569740000001</v>
+      </c>
+      <c r="E5">
+        <v>59.848292000000001</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="2">
+        <f>ROUND(VLOOKUP(CONCATENATE($H5,I$1),テーブル134[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>(217% slower)</v>
+      </c>
+      <c r="K5" s="2">
+        <f>ROUND(VLOOKUP(CONCATENATE($H5,K$1),テーブル134[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>12.6</v>
+      </c>
+      <c r="L5" t="str">
+        <f>"(" &amp;ROUND((K5-K$2)/K$2*100,0)&amp;"% slower)"</f>
+        <v>(107% slower)</v>
+      </c>
+      <c r="M5">
+        <f>ROUND(VLOOKUP(CONCATENATE($H5,M$1),テーブル134[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>5683</v>
+      </c>
+      <c r="N5" t="str">
+        <f>"(" &amp;ROUND((M5-M$2)/M$2*100,0)&amp;"% slower)"</f>
+        <v>(12% slower)</v>
+      </c>
+      <c r="O5">
+        <f>ROUND(VLOOKUP(CONCATENATE($H5,O$1),テーブル134[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>39657</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="1"/>
+        <v>(67% slower)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="str">
+        <f>CONCATENATE(テーブル134[[#This Row],[lib]],テーブル134[[#This Row],[task]])</f>
+        <v>handCodedSelectByPrimaryKey</v>
+      </c>
+      <c r="D6">
+        <v>5.7527270000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.14219899999999999</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="2">
+        <f>ROUND(VLOOKUP(CONCATENATE($H6,I$1),テーブル134[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>36.6</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>(531% slower)</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="M6">
+        <f>ROUND(VLOOKUP(CONCATENATE($H6,M$1),テーブル134[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>14245</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" ref="N6:N7" si="2">"(" &amp;ROUND((M6-M$2)/M$2*100,0)&amp;"% slower)"</f>
+        <v>(182% slower)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="str">
+        <f>CONCATENATE(テーブル134[[#This Row],[lib]],テーブル134[[#This Row],[task]])</f>
+        <v>jDBIInsert</v>
+      </c>
+      <c r="D7">
+        <v>12.570504</v>
+      </c>
+      <c r="E7">
+        <v>0.67082799999999998</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="2">
+        <f>ROUND(VLOOKUP(CONCATENATE($H7,I$1),テーブル134[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>12.4</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>(114% slower)</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="M7">
+        <f>ROUND(VLOOKUP(CONCATENATE($H7,M$1),テーブル134[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>12701</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="2"/>
+        <v>(151% slower)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="str">
+        <f>CONCATENATE(テーブル134[[#This Row],[lib]],テーブル134[[#This Row],[task]])</f>
+        <v>jDBIMultiRowInsert</v>
+      </c>
+      <c r="D8">
+        <v>39656.563736999997</v>
+      </c>
+      <c r="E8">
+        <v>5785.8300280000003</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="2">
+        <f>ROUND(VLOOKUP(CONCATENATE($H8,I$1),テーブル134[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>(76% slower)</v>
+      </c>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="str">
+        <f>CONCATENATE(テーブル134[[#This Row],[lib]],テーブル134[[#This Row],[task]])</f>
+        <v>jDBISelectAll</v>
+      </c>
+      <c r="D9">
+        <v>5683.1952090000004</v>
+      </c>
+      <c r="E9">
+        <v>148.51815099999999</v>
+      </c>
+      <c r="H9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <f>ROUND(VLOOKUP(CONCATENATE($H9,I$1),テーブル134[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>7.3</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>(26% slower)</v>
+      </c>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="str">
+        <f>CONCATENATE(テーブル134[[#This Row],[lib]],テーブル134[[#This Row],[task]])</f>
+        <v>jDBISelectByPrimaryKey</v>
+      </c>
+      <c r="D10">
+        <v>18.390208000000001</v>
+      </c>
+      <c r="E10">
+        <v>0.258631</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="str">
+        <f>CONCATENATE(テーブル134[[#This Row],[lib]],テーブル134[[#This Row],[task]])</f>
+        <v>jOOQSelectAll</v>
+      </c>
+      <c r="D11">
+        <v>14245.324316</v>
+      </c>
+      <c r="E11">
+        <v>573.88876800000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="str">
+        <f>CONCATENATE(テーブル134[[#This Row],[lib]],テーブル134[[#This Row],[task]])</f>
+        <v>jOOQSelectByPrimaryKey</v>
+      </c>
+      <c r="D12">
+        <v>36.581299999999999</v>
+      </c>
+      <c r="E12">
+        <v>2.9078490000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="str">
+        <f>CONCATENATE(テーブル134[[#This Row],[lib]],テーブル134[[#This Row],[task]])</f>
+        <v>myBatisSelectAll</v>
+      </c>
+      <c r="D13">
+        <v>12700.930425</v>
+      </c>
+      <c r="E13">
+        <v>208.128187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="str">
+        <f>CONCATENATE(テーブル134[[#This Row],[lib]],テーブル134[[#This Row],[task]])</f>
+        <v>myBatisSelectByPrimaryKey</v>
+      </c>
+      <c r="D14">
+        <v>12.359835</v>
+      </c>
+      <c r="E14">
+        <v>0.41625200000000001</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="str">
+        <f>CONCATENATE(テーブル134[[#This Row],[lib]],テーブル134[[#This Row],[task]])</f>
+        <v>sormInsert</v>
+      </c>
+      <c r="D15">
+        <v>7.2209620000000001</v>
+      </c>
+      <c r="E15">
+        <v>0.230794</v>
+      </c>
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" t="str">
+        <f>_xlfn.CONCAT(TEXT(I2,".0")," ",J2)</f>
+        <v xml:space="preserve">5.8 </v>
+      </c>
+      <c r="J15" t="str">
+        <f>_xlfn.CONCAT(TEXT(K2,".0")," ",L2)</f>
+        <v xml:space="preserve">6.1 </v>
+      </c>
+      <c r="K15" t="str">
+        <f>_xlfn.CONCAT(M2," ",N2)</f>
+        <v xml:space="preserve">5059 </v>
+      </c>
+      <c r="L15" t="str">
+        <f>_xlfn.CONCAT(O2," ",P2)</f>
+        <v xml:space="preserve">23741 </v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="str">
+        <f>CONCATENATE(テーブル134[[#This Row],[lib]],テーブル134[[#This Row],[task]])</f>
+        <v>sormMultiRowInsert</v>
+      </c>
+      <c r="D16">
+        <v>22752.986936000001</v>
+      </c>
+      <c r="E16">
+        <v>4353.5374650000003</v>
+      </c>
+      <c r="H16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" ref="I16:I22" si="3">_xlfn.CONCAT(TEXT(I3,".0")," ",J3)</f>
+        <v>6.1 (5% slower)</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" ref="J16:J18" si="4">_xlfn.CONCAT(TEXT(K3,".0")," ",L3)</f>
+        <v>7.2 (18% slower)</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" ref="K16:K20" si="5">_xlfn.CONCAT(M3," ",N3)</f>
+        <v>4419 (-13% slower)</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" ref="L16:L18" si="6">_xlfn.CONCAT(O3," ",P3)</f>
+        <v>22753 (-4% slower)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="str">
+        <f>CONCATENATE(テーブル134[[#This Row],[lib]],テーブル134[[#This Row],[task]])</f>
+        <v>sormSelectAll</v>
+      </c>
+      <c r="D17">
+        <v>4418.5830830000004</v>
+      </c>
+      <c r="E17">
+        <v>35.324876000000003</v>
+      </c>
+      <c r="H17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="3"/>
+        <v>8.2 (41% slower)</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="4"/>
+        <v>10.8 (77% slower)</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="5"/>
+        <v>5424 (7% slower)</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="6"/>
+        <v>45751 (93% slower)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="str">
+        <f>CONCATENATE(テーブル134[[#This Row],[lib]],テーブル134[[#This Row],[task]])</f>
+        <v>sormSelectByPrimaryKey</v>
+      </c>
+      <c r="D18">
+        <v>6.1034509999999997</v>
+      </c>
+      <c r="E18">
+        <v>0.15953700000000001</v>
+      </c>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="3"/>
+        <v>18.4 (217% slower)</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="4"/>
+        <v>12.6 (107% slower)</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="5"/>
+        <v>5683 (12% slower)</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="6"/>
+        <v>39657 (67% slower)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="str">
+        <f>CONCATENATE(テーブル134[[#This Row],[lib]],テーブル134[[#This Row],[task]])</f>
+        <v>springJdbcTemplateSelectByPrimaryKey</v>
+      </c>
+      <c r="D19">
+        <v>10.155696000000001</v>
+      </c>
+      <c r="E19">
+        <v>0.12836900000000001</v>
+      </c>
+      <c r="H19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="3"/>
+        <v>36.6 (531% slower)</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" ref="J19:J22" si="7">_xlfn.CONCAT(K6," ",L6)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="5"/>
+        <v>14245 (182% slower)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="str">
+        <f>CONCATENATE(テーブル134[[#This Row],[lib]],テーブル134[[#This Row],[task]])</f>
+        <v>sql2oInsert</v>
+      </c>
+      <c r="D20">
+        <v>10.814175000000001</v>
+      </c>
+      <c r="E20">
+        <v>0.11949899999999999</v>
+      </c>
+      <c r="H20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="3"/>
+        <v>12.4 (114% slower)</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="5"/>
+        <v>12701 (151% slower)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="str">
+        <f>CONCATENATE(テーブル134[[#This Row],[lib]],テーブル134[[#This Row],[task]])</f>
+        <v>sql2oMultiRowInsert</v>
+      </c>
+      <c r="D21">
+        <v>45750.576427</v>
+      </c>
+      <c r="E21">
+        <v>7061.179024</v>
+      </c>
+      <c r="H21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="3"/>
+        <v>10.2 (76% slower)</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="str">
+        <f>CONCATENATE(テーブル134[[#This Row],[lib]],テーブル134[[#This Row],[task]])</f>
+        <v>sql2oSelectAll</v>
+      </c>
+      <c r="D22">
+        <v>5423.7498500000002</v>
+      </c>
+      <c r="E22">
+        <v>97.186087999999998</v>
+      </c>
+      <c r="H22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="3"/>
+        <v>7.3 (26% slower)</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="str">
+        <f>CONCATENATE(テーブル134[[#This Row],[lib]],テーブル134[[#This Row],[task]])</f>
+        <v>sql2oSelectByPrimaryKey</v>
+      </c>
+      <c r="D23">
+        <v>8.1616350000000004</v>
+      </c>
+      <c r="E23">
+        <v>0.15326899999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H28" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H29" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="2">
+        <f>I2</f>
+        <v>5.8</v>
+      </c>
+      <c r="J29" s="3">
+        <f>K2</f>
+        <v>6.1</v>
+      </c>
+      <c r="K29">
+        <f>M2</f>
+        <v>5059</v>
+      </c>
+      <c r="L29">
+        <f>O2</f>
+        <v>23741</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H30" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" s="2">
+        <f t="shared" ref="I30:I36" si="8">I3</f>
+        <v>6.1</v>
+      </c>
+      <c r="J30" s="3">
+        <f t="shared" ref="J30:J36" si="9">K3</f>
+        <v>7.2</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ref="K30:K36" si="10">M3</f>
+        <v>4419</v>
+      </c>
+      <c r="L30">
+        <f t="shared" ref="L30:L36" si="11">O3</f>
+        <v>22753</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H31" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="8"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J31" s="3">
+        <f t="shared" si="9"/>
+        <v>10.8</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="10"/>
+        <v>5424</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="11"/>
+        <v>45751</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H32" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32" s="2">
+        <f t="shared" si="8"/>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="J32" s="3">
+        <f t="shared" si="9"/>
+        <v>12.6</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="10"/>
+        <v>5683</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="11"/>
+        <v>39657</v>
+      </c>
+    </row>
+    <row r="33" spans="8:12" x14ac:dyDescent="0.4">
+      <c r="H33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="2">
+        <f t="shared" si="8"/>
+        <v>36.6</v>
+      </c>
+      <c r="J33" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="10"/>
+        <v>14245</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="8:12" x14ac:dyDescent="0.4">
+      <c r="H34" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" s="2">
+        <f t="shared" si="8"/>
+        <v>12.4</v>
+      </c>
+      <c r="J34" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="10"/>
+        <v>12701</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="8:12" x14ac:dyDescent="0.4">
+      <c r="H35" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" s="2">
+        <f t="shared" si="8"/>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="J35" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="8:12" x14ac:dyDescent="0.4">
+      <c r="H36" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" s="2">
+        <f t="shared" si="8"/>
+        <v>7.3</v>
+      </c>
+      <c r="J36" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F61CF37D-7215-4EC5-A064-DD48DD457397}">
   <dimension ref="A1:P36"/>
   <sheetViews>
@@ -13402,7 +18035,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35445E73-0859-4F64-B8BC-312647143468}">
   <dimension ref="A1:P36"/>
   <sheetViews>

--- a/sorm4j-jmh/public/result/jmh-results.xlsx
+++ b/sorm4j-jmh/public/result/jmh-results.xlsx
@@ -1,34 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\home\ws\sorm4j\sorm4j-jmh\public\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CF36E7-B85A-462E-9815-C84D33F70AC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC1846E-2F1F-4D45-90D5-D6C2297D9DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="14520" xr2:uid="{9D1FDE6F-6CE7-48B5-8FE2-8070845FD5C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{9D1FDE6F-6CE7-48B5-8FE2-8070845FD5C3}"/>
   </bookViews>
   <sheets>
-    <sheet name="1.4.0-rc7" sheetId="5" r:id="rId1"/>
-    <sheet name="1.3.5" sheetId="3" r:id="rId2"/>
-    <sheet name="1.3.3" sheetId="2" r:id="rId3"/>
-    <sheet name="1.2.3" sheetId="1" r:id="rId4"/>
+    <sheet name="1.4.0" sheetId="7" r:id="rId1"/>
+    <sheet name="1.4.0-rc7" sheetId="5" r:id="rId2"/>
+    <sheet name="1.3.5" sheetId="3" r:id="rId3"/>
+    <sheet name="1.3.3" sheetId="2" r:id="rId4"/>
+    <sheet name="1.2.3" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="44">
   <si>
     <t>apacheDbUtils</t>
   </si>
@@ -144,6 +154,36 @@
     <t>ReadOne</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t># JMH version: 1.27</t>
+  </si>
+  <si>
+    <t># VM version: JDK 17.0.1, OpenJDK 64-Bit Server VM, 17.0.1+12</t>
+  </si>
+  <si>
+    <t># VM invoker: E:\Dropbox\opt\java\EclipseTemurin\jdk-17.0.1.12-hotspot\bin\java.exe</t>
+  </si>
+  <si>
+    <t># VM options: &lt;none&gt;</t>
+  </si>
+  <si>
+    <t># JMH blackhole mode: full blackhole + dont-inline hint; set -Djmh.blackhole.mode=COMPILER to get compiler-assisted ones</t>
+  </si>
+  <si>
+    <t># Warmup: 1 iterations, 10 s each</t>
+  </si>
+  <si>
+    <t># Measurement: 3 iterations, 10 s each</t>
+  </si>
+  <si>
+    <t># Timeout: 10 min per iteration</t>
+  </si>
+  <si>
+    <t># Threads: 1 thread, will synchronize iterations</t>
+  </si>
+  <si>
+    <t># Benchmark mode: Average time, time/op</t>
+  </si>
 </sst>
 </file>
 
@@ -209,7 +249,10 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -334,7 +377,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'1.4.0-rc7'!$H$29:$H$32</c:f>
+              <c:f>'1.4.0'!$H$29:$H$32</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -354,28 +397,28 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.4.0-rc7'!$J$29:$J$32</c:f>
+              <c:f>'1.4.0'!$J$29:$J$32</c:f>
               <c:numCache>
                 <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4.8</c:v>
+                  <c:v>5.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.4</c:v>
+                  <c:v>9.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.7</c:v>
+                  <c:v>11.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F172-4615-BB68-9EEE41EA10B5}"/>
+              <c16:uniqueId val="{00000000-A75B-4828-8EC9-3180269D7448}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -552,6 +595,1300 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Read</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>(microsec/operation)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.3.5'!$H$29:$H$36</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Hand coded (baseline)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sorm4j</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sql2o</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>JDBI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>JOOQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MyBatis</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Spring JdbcTemplate</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Apache DbUtils</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.3.5'!$I$29:$I$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CF5D-4679-95A8-6B8195D782CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="747140943"/>
+        <c:axId val="639773647"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="747140943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="639773647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="639773647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="747140943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Read multi</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>row (microsec/operation)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.3.5'!$H$29:$H$34</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Hand coded (baseline)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sorm4j</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sql2o</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>JDBI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>JOOQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MyBatis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.3.5'!$K$29:$K$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5059</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4419</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5424</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5683</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14245</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12701</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FF48-4ECF-B0D8-E9C07398EAF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="747140943"/>
+        <c:axId val="639773647"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="747140943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="639773647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="639773647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="747140943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Insert multirow</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t> (microsec/operation)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.3.5'!$H$29:$H$32</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Hand coded (baseline)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sorm4j</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sql2o</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>JDBI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.3.5'!$L$29:$L$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>23741</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22753</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45751</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39657</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9312-45DB-A44F-F47A408495FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="747140943"/>
+        <c:axId val="639773647"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="747140943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="639773647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="639773647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="747140943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Insert</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>(microsec/operation)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.3.3'!$H$29:$H$32</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Hand coded (baseline)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sorm4j</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sql2o</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>JDBI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.3.3'!$J$29:$J$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8684-4B6A-B7CD-28FB28725F9E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="747140943"/>
+        <c:axId val="639773647"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="747140943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="639773647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="639773647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0_);[Red]\(0.0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="747140943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -891,7 +2228,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -1216,7 +2553,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -1529,7 +2866,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -1845,7 +3182,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -2185,7 +3522,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -2510,7 +3847,341 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Read</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>(microsec/operation)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.4.0'!$H$29:$H$35</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Hand coded (baseline)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sorm4j</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sql2o</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>JDBI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>JOOQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MyBatis</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Spring JdbcTemplate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.4.0'!$I$29:$I$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-76C6-46D6-88F5-A9E4F8E24FE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="747140943"/>
+        <c:axId val="639773647"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="747140943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="639773647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="639773647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="747140943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -2823,7 +4494,961 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Read multi</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>row (microsec/operation)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.4.0'!$H$29:$H$34</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Hand coded (baseline)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sorm4j</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sql2o</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>JDBI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>JOOQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MyBatis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.4.0'!$K$29:$K$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3343</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3281</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4046</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5196</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14273</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10273</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B89D-474C-ADAC-352F4977B3AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="747140943"/>
+        <c:axId val="639773647"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="747140943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="639773647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="639773647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="747140943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Insert multirow</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t> (microsec/operation)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.4.0'!$H$29:$H$32</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Hand coded (baseline)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sorm4j</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sql2o</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>JDBI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.4.0'!$L$29:$L$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>21405</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22067</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42954</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37186</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5192-4F8F-A569-5BCBE51FDAE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="747140943"/>
+        <c:axId val="639773647"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="747140943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="639773647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="639773647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="747140943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Insert</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>(microsec/operation)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.4.0-rc7'!$H$29:$H$32</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Hand coded (baseline)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sorm4j</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sql2o</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>JDBI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.4.0-rc7'!$J$29:$J$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F172-4615-BB68-9EEE41EA10B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="747140943"/>
+        <c:axId val="639773647"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="747140943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="639773647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="639773647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0_);[Red]\(0.0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="747140943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -3163,7 +5788,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -3488,7 +6113,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -3801,7 +6426,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -3942,1300 +6567,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-05E5-4B51-A21A-9730EBE5510E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="747140943"/>
-        <c:axId val="639773647"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="747140943"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="639773647"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="639773647"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0_);[Red]\(0.0\)" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="747140943"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>Read</a:t>
-            </a:r>
-            <a:br>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-            </a:br>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
-              <a:t>(microsec/operation)</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'1.3.5'!$H$29:$H$36</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Hand coded (baseline)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sorm4j</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sql2o</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>JDBI</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>JOOQ</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MyBatis</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Spring JdbcTemplate</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Apache DbUtils</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'1.3.5'!$I$29:$I$36</c:f>
-              <c:numCache>
-                <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.1999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>36.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10.199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CF5D-4679-95A8-6B8195D782CC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="747140943"/>
-        <c:axId val="639773647"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="747140943"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="639773647"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="639773647"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="747140943"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>Read multi</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
-              <a:t>row (microsec/operation)</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'1.3.5'!$H$29:$H$34</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Hand coded (baseline)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sorm4j</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sql2o</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>JDBI</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>JOOQ</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MyBatis</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'1.3.5'!$K$29:$K$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>5059</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4419</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5424</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5683</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14245</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12701</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FF48-4ECF-B0D8-E9C07398EAF3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="747140943"/>
-        <c:axId val="639773647"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="747140943"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="639773647"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="639773647"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="747140943"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>Insert multirow</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
-              <a:t> (microsec/operation)</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'1.3.5'!$H$29:$H$32</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Hand coded (baseline)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sorm4j</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sql2o</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>JDBI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'1.3.5'!$L$29:$L$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>23741</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22753</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45751</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>39657</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9312-45DB-A44F-F47A408495FE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="747140943"/>
-        <c:axId val="639773647"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="747140943"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="639773647"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="639773647"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="747140943"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>Insert</a:t>
-            </a:r>
-            <a:br>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-            </a:br>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
-              <a:t>(microsec/operation)</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'1.3.3'!$H$29:$H$32</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Hand coded (baseline)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sorm4j</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sql2o</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>JDBI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'1.3.3'!$J$29:$J$32</c:f>
-              <c:numCache>
-                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>6.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8684-4B6A-B7CD-28FB28725F9E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5731,7 +7062,167 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors20.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10075,7 +11566,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10578,7 +12069,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11081,7 +12572,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11584,7 +13075,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12087,7 +13578,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12590,7 +14081,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13093,7 +14584,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13596,7 +15087,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14099,7 +15590,2176 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1136925</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>110175</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6AEEBC1-2A3F-41F0-96F1-8D0265C13902}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>654825</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>81600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF9E6645-BCBC-408F-83F0-5A2837C40D0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>159525</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>167326</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1D51B2C-F67D-4F4F-85B5-0879708EBB3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>241575</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>148275</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="グラフ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52355EDA-B2E3-4EBD-9024-30B8A9CFAEF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14256,7 +17916,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14413,7 +18073,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14570,7 +18230,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14728,15 +18388,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0B099F85-E6F2-4D11-85FB-BA203DF3B02D}" name="テーブル13456" displayName="テーブル13456" ref="A1:E22" totalsRowShown="0">
+  <autoFilter ref="A1:E22" xr:uid="{373D6382-5638-4456-A6E1-BFB64FFC50EB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E22">
+    <sortCondition ref="A1:A22"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{97F4EC6B-DA3B-4915-A510-938A6FC3738F}" name="lib"/>
+    <tableColumn id="2" xr3:uid="{6127BE2D-9B7F-448B-A8FF-EE3C12133C74}" name="task"/>
+    <tableColumn id="5" xr3:uid="{24F099FE-0840-44C9-B686-AF32AC370B2D}" name="lib and task" dataDxfId="4">
+      <calculatedColumnFormula>CONCATENATE(テーブル13456[[#This Row],[lib]],テーブル13456[[#This Row],[task]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{87FE9707-B64B-4367-BE7A-F6A255A7A86A}" name="duration"/>
+    <tableColumn id="4" xr3:uid="{4CCC488C-23E7-48B8-A6D4-70C26CBB05CC}" name="error"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6482DFFA-EEF8-42ED-B03C-076350F6DC81}" name="テーブル1345" displayName="テーブル1345" ref="A1:E23" totalsRowShown="0">
   <autoFilter ref="A1:E23" xr:uid="{373D6382-5638-4456-A6E1-BFB64FFC50EB}"/>
-  <sortState ref="A2:E23">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E23">
     <sortCondition ref="B1:B23"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{71451F9A-3AD3-4846-BA33-20E74E7DA5B6}" name="lib"/>
     <tableColumn id="2" xr3:uid="{32F8D775-D6E0-43D9-849D-3A32EA2CD688}" name="task"/>
-    <tableColumn id="5" xr3:uid="{66EB42AC-EDA7-4981-9289-15B04796D7D7}" name="lib and task" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{66EB42AC-EDA7-4981-9289-15B04796D7D7}" name="lib and task" dataDxfId="3">
       <calculatedColumnFormula>CONCATENATE(テーブル1345[[#This Row],[lib]],テーブル1345[[#This Row],[task]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{7162A802-6D1F-4902-A6AB-6A3528728430}" name="duration"/>
@@ -14746,16 +18425,16 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{374BC028-046E-41DD-BDE2-60820EC6950B}" name="テーブル134" displayName="テーブル134" ref="A1:E23" totalsRowShown="0">
   <autoFilter ref="A1:E23" xr:uid="{373D6382-5638-4456-A6E1-BFB64FFC50EB}"/>
-  <sortState ref="A2:E23">
-    <sortCondition ref="C1:C23"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E23">
+    <sortCondition ref="A1:A23"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D8392E82-4081-4F85-8F4E-C1DD0A819332}" name="lib"/>
     <tableColumn id="2" xr3:uid="{2F8D636A-574A-4027-963F-0FC9968E2894}" name="task"/>
-    <tableColumn id="5" xr3:uid="{37C07621-A2BA-443C-9C7B-440CFC442C87}" name="lib and task" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{37C07621-A2BA-443C-9C7B-440CFC442C87}" name="lib and task" dataDxfId="2">
       <calculatedColumnFormula>CONCATENATE(テーブル134[[#This Row],[lib]],テーブル134[[#This Row],[task]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{7B7A49A3-80E7-4FCE-95B6-9598DB5220E1}" name="duration"/>
@@ -14765,16 +18444,16 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6FF856B7-87CB-42F1-B811-6D2A4CA1C1D6}" name="テーブル13" displayName="テーブル13" ref="A1:E23" totalsRowShown="0">
   <autoFilter ref="A1:E23" xr:uid="{373D6382-5638-4456-A6E1-BFB64FFC50EB}"/>
-  <sortState ref="A2:E23">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E23">
     <sortCondition ref="C1:C23"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8CFB39E7-B247-4411-A62D-809545DB6450}" name="lib"/>
     <tableColumn id="2" xr3:uid="{5AD682B0-8F43-417A-BD50-1905AEF690E8}" name="task"/>
-    <tableColumn id="5" xr3:uid="{DBF65F0E-23DE-48C4-8D88-535B3EDFCCEE}" name="lib and task" dataDxfId="2">
+    <tableColumn id="5" xr3:uid="{DBF65F0E-23DE-48C4-8D88-535B3EDFCCEE}" name="lib and task" dataDxfId="1">
       <calculatedColumnFormula>CONCATENATE(テーブル13[[#This Row],[lib]],テーブル13[[#This Row],[task]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{EACA170B-3B26-44BA-A30D-2FC27608DB9D}" name="duration"/>
@@ -14784,16 +18463,16 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B3DFB630-8B09-4E21-9911-22AE76885298}" name="テーブル1" displayName="テーブル1" ref="A1:E23" totalsRowShown="0">
   <autoFilter ref="A1:E23" xr:uid="{373D6382-5638-4456-A6E1-BFB64FFC50EB}"/>
-  <sortState ref="A2:E23">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E23">
     <sortCondition ref="A1:A23"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{BDA0C84A-8310-466D-822F-3BAED5ADE7C7}" name="lib"/>
     <tableColumn id="2" xr3:uid="{B941DBC3-F5D3-43CF-882A-BD95A92D813D}" name="task"/>
-    <tableColumn id="5" xr3:uid="{44CBE539-07CA-447E-A480-F3EAD52E0CF4}" name="lib and task" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{44CBE539-07CA-447E-A480-F3EAD52E0CF4}" name="lib and task" dataDxfId="0">
       <calculatedColumnFormula>CONCATENATE(テーブル1[[#This Row],[lib]],テーブル1[[#This Row],[task]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{33AB3EE7-56D8-4457-8A4C-44DD4D0C79CA}" name="duration"/>
@@ -15099,10 +18778,975 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D5D3ACD-9F98-4EB6-8D76-E5E3AF866B50}">
+  <dimension ref="A1:P36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="5.625" customWidth="1"/>
+    <col min="8" max="8" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.625" customWidth="1"/>
+    <col min="15" max="15" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="str">
+        <f>CONCATENATE(テーブル13456[[#This Row],[lib]],テーブル13456[[#This Row],[task]])</f>
+        <v>handCodedInsert</v>
+      </c>
+      <c r="D2">
+        <v>5.1718229999999998</v>
+      </c>
+      <c r="E2">
+        <v>0.13993</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2">
+        <f>ROUND(VLOOKUP(CONCATENATE($H2,I$1),テーブル13456[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>4.2</v>
+      </c>
+      <c r="K2" s="2">
+        <f>ROUND(VLOOKUP(CONCATENATE($H2,K$1),テーブル13456[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>5.2</v>
+      </c>
+      <c r="M2">
+        <f>ROUND(VLOOKUP(CONCATENATE($H2,M$1),テーブル13456[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>3343</v>
+      </c>
+      <c r="O2">
+        <f>ROUND(VLOOKUP(CONCATENATE($H2,O$1),テーブル13456[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>21405</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="str">
+        <f>CONCATENATE(テーブル13456[[#This Row],[lib]],テーブル13456[[#This Row],[task]])</f>
+        <v>handCodedMultiRowInsert</v>
+      </c>
+      <c r="D3">
+        <v>21404.635849999999</v>
+      </c>
+      <c r="E3">
+        <v>1732.855644</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="2">
+        <f>ROUND(VLOOKUP(CONCATENATE($H3,I$1),テーブル13456[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>4.5</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J8" si="0">"(" &amp;ROUND((I3-I$2)/I$2*100,0)&amp;"% slower)"</f>
+        <v>(7% slower)</v>
+      </c>
+      <c r="K3" s="2">
+        <f>ROUND(VLOOKUP(CONCATENATE($H3,K$1),テーブル13456[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>5.7</v>
+      </c>
+      <c r="L3" t="str">
+        <f>"(" &amp;ROUND((K3-K$2)/K$2*100,0)&amp;"% slower)"</f>
+        <v>(10% slower)</v>
+      </c>
+      <c r="M3">
+        <f>ROUND(VLOOKUP(CONCATENATE($H3,M$1),テーブル13456[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>3281</v>
+      </c>
+      <c r="N3" t="str">
+        <f>"(" &amp;ROUND((M3-M$2)/M$2*100,0)&amp;"% slower)"</f>
+        <v>(-2% slower)</v>
+      </c>
+      <c r="O3">
+        <f>ROUND(VLOOKUP(CONCATENATE($H3,O$1),テーブル13456[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>22067</v>
+      </c>
+      <c r="P3" t="str">
+        <f>"(" &amp;ROUND((O3-O$2)/O$2*100,0)&amp;"% slower)"</f>
+        <v>(3% slower)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="str">
+        <f>CONCATENATE(テーブル13456[[#This Row],[lib]],テーブル13456[[#This Row],[task]])</f>
+        <v>handCodedReadAll</v>
+      </c>
+      <c r="D4">
+        <v>3342.5736040000002</v>
+      </c>
+      <c r="E4">
+        <v>72.758968999999993</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="2">
+        <f>ROUND(VLOOKUP(CONCATENATE($H4,I$1),テーブル13456[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>6.5</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>(55% slower)</v>
+      </c>
+      <c r="K4" s="2">
+        <f>ROUND(VLOOKUP(CONCATENATE($H4,K$1),テーブル13456[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>9.6</v>
+      </c>
+      <c r="L4" t="str">
+        <f>"(" &amp;ROUND((K4-K$2)/K$2*100,0)&amp;"% slower)"</f>
+        <v>(85% slower)</v>
+      </c>
+      <c r="M4">
+        <f>ROUND(VLOOKUP(CONCATENATE($H4,M$1),テーブル13456[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>4046</v>
+      </c>
+      <c r="N4" t="str">
+        <f>"(" &amp;ROUND((M4-M$2)/M$2*100,0)&amp;"% slower)"</f>
+        <v>(21% slower)</v>
+      </c>
+      <c r="O4">
+        <f>ROUND(VLOOKUP(CONCATENATE($H4,O$1),テーブル13456[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>42954</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" ref="P4:P5" si="1">"(" &amp;ROUND((O4-O$2)/O$2*100,0)&amp;"% slower)"</f>
+        <v>(101% slower)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="str">
+        <f>CONCATENATE(テーブル13456[[#This Row],[lib]],テーブル13456[[#This Row],[task]])</f>
+        <v>handCodedReadOne</v>
+      </c>
+      <c r="D5">
+        <v>4.229698</v>
+      </c>
+      <c r="E5">
+        <v>4.2298000000000002E-2</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="2">
+        <f>ROUND(VLOOKUP(CONCATENATE($H5,I$1),テーブル13456[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>16.2</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>(286% slower)</v>
+      </c>
+      <c r="K5" s="2">
+        <f>ROUND(VLOOKUP(CONCATENATE($H5,K$1),テーブル13456[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>11.9</v>
+      </c>
+      <c r="L5" t="str">
+        <f>"(" &amp;ROUND((K5-K$2)/K$2*100,0)&amp;"% slower)"</f>
+        <v>(129% slower)</v>
+      </c>
+      <c r="M5">
+        <f>ROUND(VLOOKUP(CONCATENATE($H5,M$1),テーブル13456[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>5196</v>
+      </c>
+      <c r="N5" t="str">
+        <f>"(" &amp;ROUND((M5-M$2)/M$2*100,0)&amp;"% slower)"</f>
+        <v>(55% slower)</v>
+      </c>
+      <c r="O5">
+        <f>ROUND(VLOOKUP(CONCATENATE($H5,O$1),テーブル13456[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>37186</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="1"/>
+        <v>(74% slower)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="str">
+        <f>CONCATENATE(テーブル13456[[#This Row],[lib]],テーブル13456[[#This Row],[task]])</f>
+        <v>jDBIInsert</v>
+      </c>
+      <c r="D6">
+        <v>11.882982999999999</v>
+      </c>
+      <c r="E6">
+        <v>0.50490599999999997</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="2">
+        <f>ROUND(VLOOKUP(CONCATENATE($H6,I$1),テーブル13456[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>44.2</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>(952% slower)</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="M6">
+        <f>ROUND(VLOOKUP(CONCATENATE($H6,M$1),テーブル13456[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>14273</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" ref="N6:N7" si="2">"(" &amp;ROUND((M6-M$2)/M$2*100,0)&amp;"% slower)"</f>
+        <v>(327% slower)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="str">
+        <f>CONCATENATE(テーブル13456[[#This Row],[lib]],テーブル13456[[#This Row],[task]])</f>
+        <v>jDBIMultiRowInsert</v>
+      </c>
+      <c r="D7">
+        <v>37185.790130000001</v>
+      </c>
+      <c r="E7">
+        <v>1272.00935</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="2">
+        <f>ROUND(VLOOKUP(CONCATENATE($H7,I$1),テーブル13456[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>10</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>(138% slower)</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="M7">
+        <f>ROUND(VLOOKUP(CONCATENATE($H7,M$1),テーブル13456[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>10273</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="2"/>
+        <v>(207% slower)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="str">
+        <f>CONCATENATE(テーブル13456[[#This Row],[lib]],テーブル13456[[#This Row],[task]])</f>
+        <v>jDBIReadAll</v>
+      </c>
+      <c r="D8">
+        <v>5196.333181</v>
+      </c>
+      <c r="E8">
+        <v>30.318816999999999</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="2">
+        <f>ROUND(VLOOKUP(CONCATENATE($H8,I$1),テーブル13456[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>9.1</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>(117% slower)</v>
+      </c>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="str">
+        <f>CONCATENATE(テーブル13456[[#This Row],[lib]],テーブル13456[[#This Row],[task]])</f>
+        <v>jDBIReadOne</v>
+      </c>
+      <c r="D9">
+        <v>16.210146999999999</v>
+      </c>
+      <c r="E9">
+        <v>0.75587099999999996</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="str">
+        <f>CONCATENATE(テーブル13456[[#This Row],[lib]],テーブル13456[[#This Row],[task]])</f>
+        <v>jOOQReadAll</v>
+      </c>
+      <c r="D10">
+        <v>14272.711869999999</v>
+      </c>
+      <c r="E10">
+        <v>379.23082399999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="str">
+        <f>CONCATENATE(テーブル13456[[#This Row],[lib]],テーブル13456[[#This Row],[task]])</f>
+        <v>jOOQReadOne</v>
+      </c>
+      <c r="D11">
+        <v>44.203670000000002</v>
+      </c>
+      <c r="E11">
+        <v>0.74849699999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="str">
+        <f>CONCATENATE(テーブル13456[[#This Row],[lib]],テーブル13456[[#This Row],[task]])</f>
+        <v>myBatisReadAll</v>
+      </c>
+      <c r="D12">
+        <v>10272.620269999999</v>
+      </c>
+      <c r="E12">
+        <v>278.43811299999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="str">
+        <f>CONCATENATE(テーブル13456[[#This Row],[lib]],テーブル13456[[#This Row],[task]])</f>
+        <v>myBatisReadOne</v>
+      </c>
+      <c r="D13">
+        <v>10.005481</v>
+      </c>
+      <c r="E13">
+        <v>0.336588</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="str">
+        <f>CONCATENATE(テーブル13456[[#This Row],[lib]],テーブル13456[[#This Row],[task]])</f>
+        <v>sormInsert</v>
+      </c>
+      <c r="D14">
+        <v>5.7429899999999998</v>
+      </c>
+      <c r="E14">
+        <v>0.14307500000000001</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="str">
+        <f>CONCATENATE(テーブル13456[[#This Row],[lib]],テーブル13456[[#This Row],[task]])</f>
+        <v>sormMultiRowInsert</v>
+      </c>
+      <c r="D15">
+        <v>22067.419320000001</v>
+      </c>
+      <c r="E15">
+        <v>1479.7603799999999</v>
+      </c>
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" t="str">
+        <f>_xlfn.CONCAT(TEXT(I2,".0")," ",J2)</f>
+        <v xml:space="preserve">4.2 </v>
+      </c>
+      <c r="J15" t="str">
+        <f>_xlfn.CONCAT(TEXT(K2,".0")," ",L2)</f>
+        <v xml:space="preserve">5.2 </v>
+      </c>
+      <c r="K15" t="str">
+        <f>_xlfn.CONCAT(M2," ",N2)</f>
+        <v xml:space="preserve">3343 </v>
+      </c>
+      <c r="L15" t="str">
+        <f>_xlfn.CONCAT(O2," ",P2)</f>
+        <v xml:space="preserve">21405 </v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="str">
+        <f>CONCATENATE(テーブル13456[[#This Row],[lib]],テーブル13456[[#This Row],[task]])</f>
+        <v>sormReadAll</v>
+      </c>
+      <c r="D16">
+        <v>3280.6523379999999</v>
+      </c>
+      <c r="E16">
+        <v>267.41111100000001</v>
+      </c>
+      <c r="H16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" ref="I16:I21" si="3">_xlfn.CONCAT(TEXT(I3,".0")," ",J3)</f>
+        <v>4.5 (7% slower)</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" ref="J16:J18" si="4">_xlfn.CONCAT(TEXT(K3,".0")," ",L3)</f>
+        <v>5.7 (10% slower)</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" ref="K16:K20" si="5">_xlfn.CONCAT(M3," ",N3)</f>
+        <v>3281 (-2% slower)</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" ref="L16:L18" si="6">_xlfn.CONCAT(O3," ",P3)</f>
+        <v>22067 (3% slower)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="str">
+        <f>CONCATENATE(テーブル13456[[#This Row],[lib]],テーブル13456[[#This Row],[task]])</f>
+        <v>sormReadOne</v>
+      </c>
+      <c r="D17">
+        <v>4.4757490000000004</v>
+      </c>
+      <c r="E17">
+        <v>0.14319100000000001</v>
+      </c>
+      <c r="H17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="3"/>
+        <v>6.5 (55% slower)</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="4"/>
+        <v>9.6 (85% slower)</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="5"/>
+        <v>4046 (21% slower)</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="6"/>
+        <v>42954 (101% slower)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="str">
+        <f>CONCATENATE(テーブル13456[[#This Row],[lib]],テーブル13456[[#This Row],[task]])</f>
+        <v>springJdbcTemplateReadOne</v>
+      </c>
+      <c r="D18">
+        <v>9.0969119999999997</v>
+      </c>
+      <c r="E18">
+        <v>0.29468100000000003</v>
+      </c>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="3"/>
+        <v>16.2 (286% slower)</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="4"/>
+        <v>11.9 (129% slower)</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="5"/>
+        <v>5196 (55% slower)</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="6"/>
+        <v>37186 (74% slower)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="str">
+        <f>CONCATENATE(テーブル13456[[#This Row],[lib]],テーブル13456[[#This Row],[task]])</f>
+        <v>sql2oInsert</v>
+      </c>
+      <c r="D19">
+        <v>9.5540450000000003</v>
+      </c>
+      <c r="E19">
+        <v>0.15320400000000001</v>
+      </c>
+      <c r="H19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="3"/>
+        <v>44.2 (952% slower)</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" ref="J19:J22" si="7">_xlfn.CONCAT(K6," ",L6)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="5"/>
+        <v>14273 (327% slower)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="str">
+        <f>CONCATENATE(テーブル13456[[#This Row],[lib]],テーブル13456[[#This Row],[task]])</f>
+        <v>sql2oMultiRowInsert</v>
+      </c>
+      <c r="D20">
+        <v>42954.329960000003</v>
+      </c>
+      <c r="E20">
+        <v>1663.573993</v>
+      </c>
+      <c r="H20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="3"/>
+        <v>10.0 (138% slower)</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="5"/>
+        <v>10273 (207% slower)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="str">
+        <f>CONCATENATE(テーブル13456[[#This Row],[lib]],テーブル13456[[#This Row],[task]])</f>
+        <v>sql2oReadAll</v>
+      </c>
+      <c r="D21">
+        <v>4046.4365509999998</v>
+      </c>
+      <c r="E21">
+        <v>81.696809000000002</v>
+      </c>
+      <c r="H21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="3"/>
+        <v>9.1 (117% slower)</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="str">
+        <f>CONCATENATE(テーブル13456[[#This Row],[lib]],テーブル13456[[#This Row],[task]])</f>
+        <v>sql2oReadOne</v>
+      </c>
+      <c r="D22">
+        <v>6.4854649999999996</v>
+      </c>
+      <c r="E22">
+        <v>0.12770300000000001</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="2">
+        <f>I2</f>
+        <v>4.2</v>
+      </c>
+      <c r="J29" s="3">
+        <f>K2</f>
+        <v>5.2</v>
+      </c>
+      <c r="K29">
+        <f>M2</f>
+        <v>3343</v>
+      </c>
+      <c r="L29">
+        <f>O2</f>
+        <v>21405</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" s="2">
+        <f t="shared" ref="I30:I35" si="8">I3</f>
+        <v>4.5</v>
+      </c>
+      <c r="J30" s="3">
+        <f t="shared" ref="J30:J35" si="9">K3</f>
+        <v>5.7</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ref="K30:K35" si="10">M3</f>
+        <v>3281</v>
+      </c>
+      <c r="L30">
+        <f t="shared" ref="L30:L35" si="11">O3</f>
+        <v>22067</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="8"/>
+        <v>6.5</v>
+      </c>
+      <c r="J31" s="3">
+        <f t="shared" si="9"/>
+        <v>9.6</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="10"/>
+        <v>4046</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="11"/>
+        <v>42954</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32" s="2">
+        <f t="shared" si="8"/>
+        <v>16.2</v>
+      </c>
+      <c r="J32" s="3">
+        <f t="shared" si="9"/>
+        <v>11.9</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="10"/>
+        <v>5196</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="11"/>
+        <v>37186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="2">
+        <f t="shared" si="8"/>
+        <v>44.2</v>
+      </c>
+      <c r="J33" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="10"/>
+        <v>14273</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H34" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J34" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="10"/>
+        <v>10273</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H35" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" s="2">
+        <f t="shared" si="8"/>
+        <v>9.1</v>
+      </c>
+      <c r="J35" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="I36" s="2"/>
+      <c r="J36" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561FE2CA-532F-468B-B85D-2BC2BE90541A}">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
@@ -16077,12 +20721,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AEA92FB-C8A3-4D71-8FD1-F1E3E1533838}">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -17056,7 +21700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F61CF37D-7215-4EC5-A064-DD48DD457397}">
   <dimension ref="A1:P36"/>
   <sheetViews>
@@ -18035,7 +22679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35445E73-0859-4F64-B8BC-312647143468}">
   <dimension ref="A1:P36"/>
   <sheetViews>

--- a/sorm4j-jmh/public/result/jmh-results.xlsx
+++ b/sorm4j-jmh/public/result/jmh-results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\home\ws\sorm4j\sorm4j-jmh\public\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC1846E-2F1F-4D45-90D5-D6C2297D9DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3839FA-69FD-42C9-B2F7-142D29E22A90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{9D1FDE6F-6CE7-48B5-8FE2-8070845FD5C3}"/>
   </bookViews>
@@ -23,15 +23,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -408,10 +399,10 @@
                   <c:v>5.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.6</c:v>
+                  <c:v>9.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.9</c:v>
+                  <c:v>12.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3983,22 +3974,22 @@
                   <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5</c:v>
+                  <c:v>4.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.5</c:v>
+                  <c:v>6.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.2</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44.2</c:v>
+                  <c:v>42.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>9.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.1</c:v>
+                  <c:v>8.6999999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4621,22 +4612,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3343</c:v>
+                  <c:v>3405</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3281</c:v>
+                  <c:v>3091</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4046</c:v>
+                  <c:v>3878</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5196</c:v>
+                  <c:v>5128</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14273</c:v>
+                  <c:v>14123</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10273</c:v>
+                  <c:v>10083</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4940,16 +4931,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>21405</c:v>
+                  <c:v>21135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22067</c:v>
+                  <c:v>21259</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42954</c:v>
+                  <c:v>41126</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37186</c:v>
+                  <c:v>37644</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18390,7 +18381,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0B099F85-E6F2-4D11-85FB-BA203DF3B02D}" name="テーブル13456" displayName="テーブル13456" ref="A1:E22" totalsRowShown="0">
   <autoFilter ref="A1:E22" xr:uid="{373D6382-5638-4456-A6E1-BFB64FFC50EB}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E22">
+  <sortState ref="A2:E22">
     <sortCondition ref="A1:A22"/>
   </sortState>
   <tableColumns count="5">
@@ -18409,7 +18400,7 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6482DFFA-EEF8-42ED-B03C-076350F6DC81}" name="テーブル1345" displayName="テーブル1345" ref="A1:E23" totalsRowShown="0">
   <autoFilter ref="A1:E23" xr:uid="{373D6382-5638-4456-A6E1-BFB64FFC50EB}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E23">
+  <sortState ref="A2:E23">
     <sortCondition ref="B1:B23"/>
   </sortState>
   <tableColumns count="5">
@@ -18428,7 +18419,7 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{374BC028-046E-41DD-BDE2-60820EC6950B}" name="テーブル134" displayName="テーブル134" ref="A1:E23" totalsRowShown="0">
   <autoFilter ref="A1:E23" xr:uid="{373D6382-5638-4456-A6E1-BFB64FFC50EB}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E23">
+  <sortState ref="A2:E23">
     <sortCondition ref="A1:A23"/>
   </sortState>
   <tableColumns count="5">
@@ -18447,7 +18438,7 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6FF856B7-87CB-42F1-B811-6D2A4CA1C1D6}" name="テーブル13" displayName="テーブル13" ref="A1:E23" totalsRowShown="0">
   <autoFilter ref="A1:E23" xr:uid="{373D6382-5638-4456-A6E1-BFB64FFC50EB}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E23">
+  <sortState ref="A2:E23">
     <sortCondition ref="C1:C23"/>
   </sortState>
   <tableColumns count="5">
@@ -18466,7 +18457,7 @@
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B3DFB630-8B09-4E21-9911-22AE76885298}" name="テーブル1" displayName="テーブル1" ref="A1:E23" totalsRowShown="0">
   <autoFilter ref="A1:E23" xr:uid="{373D6382-5638-4456-A6E1-BFB64FFC50EB}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E23">
+  <sortState ref="A2:E23">
     <sortCondition ref="A1:A23"/>
   </sortState>
   <tableColumns count="5">
@@ -18781,8 +18772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D5D3ACD-9F98-4EB6-8D76-E5E3AF866B50}">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -18845,10 +18836,10 @@
         <v>handCodedInsert</v>
       </c>
       <c r="D2">
-        <v>5.1718229999999998</v>
+        <v>5.2318110000000004</v>
       </c>
       <c r="E2">
-        <v>0.13993</v>
+        <v>0.124401</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>2</v>
@@ -18863,11 +18854,11 @@
       </c>
       <c r="M2">
         <f>ROUND(VLOOKUP(CONCATENATE($H2,M$1),テーブル13456[[#All],[lib and task]:[error]],2,FALSE),0)</f>
-        <v>3343</v>
+        <v>3405</v>
       </c>
       <c r="O2">
         <f>ROUND(VLOOKUP(CONCATENATE($H2,O$1),テーブル13456[[#All],[lib and task]:[error]],2,FALSE),0)</f>
-        <v>21405</v>
+        <v>21135</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.4">
@@ -18882,21 +18873,21 @@
         <v>handCodedMultiRowInsert</v>
       </c>
       <c r="D3">
-        <v>21404.635849999999</v>
+        <v>21134.842909999999</v>
       </c>
       <c r="E3">
-        <v>1732.855644</v>
+        <v>1379.4680089999999</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="2">
         <f>ROUND(VLOOKUP(CONCATENATE($H3,I$1),テーブル13456[[#All],[lib and task]:[error]],2,FALSE),1)</f>
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="J3" t="str">
         <f t="shared" ref="J3:J8" si="0">"(" &amp;ROUND((I3-I$2)/I$2*100,0)&amp;"% slower)"</f>
-        <v>(7% slower)</v>
+        <v>(2% slower)</v>
       </c>
       <c r="K3" s="2">
         <f>ROUND(VLOOKUP(CONCATENATE($H3,K$1),テーブル13456[[#All],[lib and task]:[error]],2,FALSE),1)</f>
@@ -18908,19 +18899,19 @@
       </c>
       <c r="M3">
         <f>ROUND(VLOOKUP(CONCATENATE($H3,M$1),テーブル13456[[#All],[lib and task]:[error]],2,FALSE),0)</f>
-        <v>3281</v>
+        <v>3091</v>
       </c>
       <c r="N3" t="str">
         <f>"(" &amp;ROUND((M3-M$2)/M$2*100,0)&amp;"% slower)"</f>
-        <v>(-2% slower)</v>
+        <v>(-9% slower)</v>
       </c>
       <c r="O3">
         <f>ROUND(VLOOKUP(CONCATENATE($H3,O$1),テーブル13456[[#All],[lib and task]:[error]],2,FALSE),0)</f>
-        <v>22067</v>
+        <v>21259</v>
       </c>
       <c r="P3" t="str">
         <f>"(" &amp;ROUND((O3-O$2)/O$2*100,0)&amp;"% slower)"</f>
-        <v>(3% slower)</v>
+        <v>(1% slower)</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.4">
@@ -18935,45 +18926,45 @@
         <v>handCodedReadAll</v>
       </c>
       <c r="D4">
-        <v>3342.5736040000002</v>
+        <v>3404.8455260000001</v>
       </c>
       <c r="E4">
-        <v>72.758968999999993</v>
+        <v>94.134073000000001</v>
       </c>
       <c r="H4" t="s">
         <v>11</v>
       </c>
       <c r="I4" s="2">
         <f>ROUND(VLOOKUP(CONCATENATE($H4,I$1),テーブル13456[[#All],[lib and task]:[error]],2,FALSE),1)</f>
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" si="0"/>
-        <v>(55% slower)</v>
+        <v>(50% slower)</v>
       </c>
       <c r="K4" s="2">
         <f>ROUND(VLOOKUP(CONCATENATE($H4,K$1),テーブル13456[[#All],[lib and task]:[error]],2,FALSE),1)</f>
-        <v>9.6</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="L4" t="str">
         <f>"(" &amp;ROUND((K4-K$2)/K$2*100,0)&amp;"% slower)"</f>
-        <v>(85% slower)</v>
+        <v>(79% slower)</v>
       </c>
       <c r="M4">
         <f>ROUND(VLOOKUP(CONCATENATE($H4,M$1),テーブル13456[[#All],[lib and task]:[error]],2,FALSE),0)</f>
-        <v>4046</v>
+        <v>3878</v>
       </c>
       <c r="N4" t="str">
         <f>"(" &amp;ROUND((M4-M$2)/M$2*100,0)&amp;"% slower)"</f>
-        <v>(21% slower)</v>
+        <v>(14% slower)</v>
       </c>
       <c r="O4">
         <f>ROUND(VLOOKUP(CONCATENATE($H4,O$1),テーブル13456[[#All],[lib and task]:[error]],2,FALSE),0)</f>
-        <v>42954</v>
+        <v>41126</v>
       </c>
       <c r="P4" t="str">
         <f t="shared" ref="P4:P5" si="1">"(" &amp;ROUND((O4-O$2)/O$2*100,0)&amp;"% slower)"</f>
-        <v>(101% slower)</v>
+        <v>(95% slower)</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.4">
@@ -18988,45 +18979,45 @@
         <v>handCodedReadOne</v>
       </c>
       <c r="D5">
-        <v>4.229698</v>
+        <v>4.1886109999999999</v>
       </c>
       <c r="E5">
-        <v>4.2298000000000002E-2</v>
+        <v>3.0286E-2</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="2">
         <f>ROUND(VLOOKUP(CONCATENATE($H5,I$1),テーブル13456[[#All],[lib and task]:[error]],2,FALSE),1)</f>
-        <v>16.2</v>
+        <v>16.5</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="0"/>
-        <v>(286% slower)</v>
+        <v>(293% slower)</v>
       </c>
       <c r="K5" s="2">
         <f>ROUND(VLOOKUP(CONCATENATE($H5,K$1),テーブル13456[[#All],[lib and task]:[error]],2,FALSE),1)</f>
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="L5" t="str">
         <f>"(" &amp;ROUND((K5-K$2)/K$2*100,0)&amp;"% slower)"</f>
-        <v>(129% slower)</v>
+        <v>(133% slower)</v>
       </c>
       <c r="M5">
         <f>ROUND(VLOOKUP(CONCATENATE($H5,M$1),テーブル13456[[#All],[lib and task]:[error]],2,FALSE),0)</f>
-        <v>5196</v>
+        <v>5128</v>
       </c>
       <c r="N5" t="str">
         <f>"(" &amp;ROUND((M5-M$2)/M$2*100,0)&amp;"% slower)"</f>
-        <v>(55% slower)</v>
+        <v>(51% slower)</v>
       </c>
       <c r="O5">
         <f>ROUND(VLOOKUP(CONCATENATE($H5,O$1),テーブル13456[[#All],[lib and task]:[error]],2,FALSE),0)</f>
-        <v>37186</v>
+        <v>37644</v>
       </c>
       <c r="P5" t="str">
         <f t="shared" si="1"/>
-        <v>(74% slower)</v>
+        <v>(78% slower)</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.4">
@@ -19041,30 +19032,30 @@
         <v>jDBIInsert</v>
       </c>
       <c r="D6">
-        <v>11.882982999999999</v>
+        <v>12.078761999999999</v>
       </c>
       <c r="E6">
-        <v>0.50490599999999997</v>
+        <v>0.35935299999999998</v>
       </c>
       <c r="H6" t="s">
         <v>7</v>
       </c>
       <c r="I6" s="2">
         <f>ROUND(VLOOKUP(CONCATENATE($H6,I$1),テーブル13456[[#All],[lib and task]:[error]],2,FALSE),1)</f>
-        <v>44.2</v>
+        <v>42.9</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
-        <v>(952% slower)</v>
+        <v>(921% slower)</v>
       </c>
       <c r="K6" s="2"/>
       <c r="M6">
         <f>ROUND(VLOOKUP(CONCATENATE($H6,M$1),テーブル13456[[#All],[lib and task]:[error]],2,FALSE),0)</f>
-        <v>14273</v>
+        <v>14123</v>
       </c>
       <c r="N6" t="str">
         <f t="shared" ref="N6:N7" si="2">"(" &amp;ROUND((M6-M$2)/M$2*100,0)&amp;"% slower)"</f>
-        <v>(327% slower)</v>
+        <v>(315% slower)</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.4">
@@ -19079,30 +19070,30 @@
         <v>jDBIMultiRowInsert</v>
       </c>
       <c r="D7">
-        <v>37185.790130000001</v>
+        <v>37644.10643</v>
       </c>
       <c r="E7">
-        <v>1272.00935</v>
+        <v>1376.000933</v>
       </c>
       <c r="H7" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="2">
         <f>ROUND(VLOOKUP(CONCATENATE($H7,I$1),テーブル13456[[#All],[lib and task]:[error]],2,FALSE),1)</f>
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="0"/>
-        <v>(138% slower)</v>
+        <v>(129% slower)</v>
       </c>
       <c r="K7" s="2"/>
       <c r="M7">
         <f>ROUND(VLOOKUP(CONCATENATE($H7,M$1),テーブル13456[[#All],[lib and task]:[error]],2,FALSE),0)</f>
-        <v>10273</v>
+        <v>10083</v>
       </c>
       <c r="N7" t="str">
         <f t="shared" si="2"/>
-        <v>(207% slower)</v>
+        <v>(196% slower)</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.4">
@@ -19117,21 +19108,21 @@
         <v>jDBIReadAll</v>
       </c>
       <c r="D8">
-        <v>5196.333181</v>
+        <v>5128.2265619999998</v>
       </c>
       <c r="E8">
-        <v>30.318816999999999</v>
+        <v>171.65794099999999</v>
       </c>
       <c r="H8" t="s">
         <v>10</v>
       </c>
       <c r="I8" s="2">
         <f>ROUND(VLOOKUP(CONCATENATE($H8,I$1),テーブル13456[[#All],[lib and task]:[error]],2,FALSE),1)</f>
-        <v>9.1</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="0"/>
-        <v>(117% slower)</v>
+        <v>(107% slower)</v>
       </c>
       <c r="K8" s="2"/>
     </row>
@@ -19147,10 +19138,10 @@
         <v>jDBIReadOne</v>
       </c>
       <c r="D9">
-        <v>16.210146999999999</v>
+        <v>16.463118999999999</v>
       </c>
       <c r="E9">
-        <v>0.75587099999999996</v>
+        <v>0.68632099999999996</v>
       </c>
       <c r="I9" s="2"/>
       <c r="K9" s="2"/>
@@ -19167,10 +19158,10 @@
         <v>jOOQReadAll</v>
       </c>
       <c r="D10">
-        <v>14272.711869999999</v>
+        <v>14123.416649999999</v>
       </c>
       <c r="E10">
-        <v>379.23082399999998</v>
+        <v>210.31562700000001</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.4">
@@ -19185,10 +19176,10 @@
         <v>jOOQReadOne</v>
       </c>
       <c r="D11">
-        <v>44.203670000000002</v>
+        <v>42.852682000000001</v>
       </c>
       <c r="E11">
-        <v>0.74849699999999997</v>
+        <v>0.83155199999999996</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.4">
@@ -19203,10 +19194,10 @@
         <v>myBatisReadAll</v>
       </c>
       <c r="D12">
-        <v>10272.620269999999</v>
+        <v>10083.1387</v>
       </c>
       <c r="E12">
-        <v>278.43811299999999</v>
+        <v>235.503016</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.4">
@@ -19221,10 +19212,10 @@
         <v>myBatisReadOne</v>
       </c>
       <c r="D13">
-        <v>10.005481</v>
+        <v>9.6076130000000006</v>
       </c>
       <c r="E13">
-        <v>0.336588</v>
+        <v>0.18263699999999999</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.4">
@@ -19239,10 +19230,10 @@
         <v>sormInsert</v>
       </c>
       <c r="D14">
-        <v>5.7429899999999998</v>
+        <v>5.7073499999999999</v>
       </c>
       <c r="E14">
-        <v>0.14307500000000001</v>
+        <v>0.18166499999999999</v>
       </c>
       <c r="H14" t="s">
         <v>16</v>
@@ -19272,10 +19263,10 @@
         <v>sormMultiRowInsert</v>
       </c>
       <c r="D15">
-        <v>22067.419320000001</v>
+        <v>21259.28384</v>
       </c>
       <c r="E15">
-        <v>1479.7603799999999</v>
+        <v>1491.681773</v>
       </c>
       <c r="H15" t="s">
         <v>25</v>
@@ -19290,11 +19281,11 @@
       </c>
       <c r="K15" t="str">
         <f>_xlfn.CONCAT(M2," ",N2)</f>
-        <v xml:space="preserve">3343 </v>
+        <v xml:space="preserve">3405 </v>
       </c>
       <c r="L15" t="str">
         <f>_xlfn.CONCAT(O2," ",P2)</f>
-        <v xml:space="preserve">21405 </v>
+        <v xml:space="preserve">21135 </v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.4">
@@ -19309,17 +19300,17 @@
         <v>sormReadAll</v>
       </c>
       <c r="D16">
-        <v>3280.6523379999999</v>
+        <v>3091.2804299999998</v>
       </c>
       <c r="E16">
-        <v>267.41111100000001</v>
+        <v>57.027994999999997</v>
       </c>
       <c r="H16" t="s">
         <v>30</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" ref="I16:I21" si="3">_xlfn.CONCAT(TEXT(I3,".0")," ",J3)</f>
-        <v>4.5 (7% slower)</v>
+        <v>4.3 (2% slower)</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" ref="J16:J18" si="4">_xlfn.CONCAT(TEXT(K3,".0")," ",L3)</f>
@@ -19327,11 +19318,11 @@
       </c>
       <c r="K16" t="str">
         <f t="shared" ref="K16:K20" si="5">_xlfn.CONCAT(M3," ",N3)</f>
-        <v>3281 (-2% slower)</v>
+        <v>3091 (-9% slower)</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" ref="L16:L18" si="6">_xlfn.CONCAT(O3," ",P3)</f>
-        <v>22067 (3% slower)</v>
+        <v>21259 (1% slower)</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.4">
@@ -19346,29 +19337,29 @@
         <v>sormReadOne</v>
       </c>
       <c r="D17">
-        <v>4.4757490000000004</v>
+        <v>4.281161</v>
       </c>
       <c r="E17">
-        <v>0.14319100000000001</v>
+        <v>8.5916000000000006E-2</v>
       </c>
       <c r="H17" t="s">
         <v>26</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="3"/>
-        <v>6.5 (55% slower)</v>
+        <v>6.3 (50% slower)</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" si="4"/>
-        <v>9.6 (85% slower)</v>
+        <v>9.3 (79% slower)</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="5"/>
-        <v>4046 (21% slower)</v>
+        <v>3878 (14% slower)</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="6"/>
-        <v>42954 (101% slower)</v>
+        <v>41126 (95% slower)</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.4">
@@ -19383,29 +19374,29 @@
         <v>springJdbcTemplateReadOne</v>
       </c>
       <c r="D18">
-        <v>9.0969119999999997</v>
+        <v>8.7179169999999999</v>
       </c>
       <c r="E18">
-        <v>0.29468100000000003</v>
+        <v>6.0080000000000001E-2</v>
       </c>
       <c r="H18" t="s">
         <v>27</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="3"/>
-        <v>16.2 (286% slower)</v>
+        <v>16.5 (293% slower)</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" si="4"/>
-        <v>11.9 (129% slower)</v>
+        <v>12.1 (133% slower)</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="5"/>
-        <v>5196 (55% slower)</v>
+        <v>5128 (51% slower)</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="6"/>
-        <v>37186 (74% slower)</v>
+        <v>37644 (78% slower)</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.4">
@@ -19420,17 +19411,17 @@
         <v>sql2oInsert</v>
       </c>
       <c r="D19">
-        <v>9.5540450000000003</v>
+        <v>9.3036969999999997</v>
       </c>
       <c r="E19">
-        <v>0.15320400000000001</v>
+        <v>0.26167200000000002</v>
       </c>
       <c r="H19" t="s">
         <v>21</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="3"/>
-        <v>44.2 (952% slower)</v>
+        <v>42.9 (921% slower)</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" ref="J19:J22" si="7">_xlfn.CONCAT(K6," ",L6)</f>
@@ -19438,7 +19429,7 @@
       </c>
       <c r="K19" t="str">
         <f t="shared" si="5"/>
-        <v>14273 (327% slower)</v>
+        <v>14123 (315% slower)</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
@@ -19453,17 +19444,17 @@
         <v>sql2oMultiRowInsert</v>
       </c>
       <c r="D20">
-        <v>42954.329960000003</v>
+        <v>41125.664320000003</v>
       </c>
       <c r="E20">
-        <v>1663.573993</v>
+        <v>815.67624599999999</v>
       </c>
       <c r="H20" t="s">
         <v>22</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="3"/>
-        <v>10.0 (138% slower)</v>
+        <v>9.6 (129% slower)</v>
       </c>
       <c r="J20" t="str">
         <f t="shared" si="7"/>
@@ -19471,7 +19462,7 @@
       </c>
       <c r="K20" t="str">
         <f t="shared" si="5"/>
-        <v>10273 (207% slower)</v>
+        <v>10083 (196% slower)</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.4">
@@ -19486,17 +19477,17 @@
         <v>sql2oReadAll</v>
       </c>
       <c r="D21">
-        <v>4046.4365509999998</v>
+        <v>3877.7730769999998</v>
       </c>
       <c r="E21">
-        <v>81.696809000000002</v>
+        <v>178.28181900000001</v>
       </c>
       <c r="H21" t="s">
         <v>31</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="3"/>
-        <v>9.1 (117% slower)</v>
+        <v>8.7 (107% slower)</v>
       </c>
       <c r="J21" t="str">
         <f t="shared" si="7"/>
@@ -19515,10 +19506,10 @@
         <v>sql2oReadOne</v>
       </c>
       <c r="D22">
-        <v>6.4854649999999996</v>
+        <v>6.3018190000000001</v>
       </c>
       <c r="E22">
-        <v>0.12770300000000001</v>
+        <v>0.12196899999999999</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" si="7"/>
@@ -19582,11 +19573,11 @@
       </c>
       <c r="K29">
         <f>M2</f>
-        <v>3343</v>
+        <v>3405</v>
       </c>
       <c r="L29">
         <f>O2</f>
-        <v>21405</v>
+        <v>21135</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.4">
@@ -19598,7 +19589,7 @@
       </c>
       <c r="I30" s="2">
         <f t="shared" ref="I30:I35" si="8">I3</f>
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="J30" s="3">
         <f t="shared" ref="J30:J35" si="9">K3</f>
@@ -19606,11 +19597,11 @@
       </c>
       <c r="K30">
         <f t="shared" ref="K30:K35" si="10">M3</f>
-        <v>3281</v>
+        <v>3091</v>
       </c>
       <c r="L30">
         <f t="shared" ref="L30:L35" si="11">O3</f>
-        <v>22067</v>
+        <v>21259</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.4">
@@ -19622,19 +19613,19 @@
       </c>
       <c r="I31" s="2">
         <f t="shared" si="8"/>
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="J31" s="3">
         <f t="shared" si="9"/>
-        <v>9.6</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="K31">
         <f t="shared" si="10"/>
-        <v>4046</v>
+        <v>3878</v>
       </c>
       <c r="L31">
         <f t="shared" si="11"/>
-        <v>42954</v>
+        <v>41126</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.4">
@@ -19646,19 +19637,19 @@
       </c>
       <c r="I32" s="2">
         <f t="shared" si="8"/>
-        <v>16.2</v>
+        <v>16.5</v>
       </c>
       <c r="J32" s="3">
         <f t="shared" si="9"/>
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="K32">
         <f t="shared" si="10"/>
-        <v>5196</v>
+        <v>5128</v>
       </c>
       <c r="L32">
         <f t="shared" si="11"/>
-        <v>37186</v>
+        <v>37644</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.4">
@@ -19670,7 +19661,7 @@
       </c>
       <c r="I33" s="2">
         <f t="shared" si="8"/>
-        <v>44.2</v>
+        <v>42.9</v>
       </c>
       <c r="J33" s="3">
         <f t="shared" si="9"/>
@@ -19678,7 +19669,7 @@
       </c>
       <c r="K33">
         <f t="shared" si="10"/>
-        <v>14273</v>
+        <v>14123</v>
       </c>
       <c r="L33">
         <f t="shared" si="11"/>
@@ -19691,7 +19682,7 @@
       </c>
       <c r="I34" s="2">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="J34" s="3">
         <f t="shared" si="9"/>
@@ -19699,7 +19690,7 @@
       </c>
       <c r="K34">
         <f t="shared" si="10"/>
-        <v>10273</v>
+        <v>10083</v>
       </c>
       <c r="L34">
         <f t="shared" si="11"/>
@@ -19712,7 +19703,7 @@
       </c>
       <c r="I35" s="2">
         <f t="shared" si="8"/>
-        <v>9.1</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="J35" s="3">
         <f t="shared" si="9"/>

--- a/sorm4j-jmh/public/result/jmh-results.xlsx
+++ b/sorm4j-jmh/public/result/jmh-results.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\home\ws\sorm4j\sorm4j-jmh\public\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3839FA-69FD-42C9-B2F7-142D29E22A90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97C84EE-B134-44F6-9BB2-5C6A66BD482A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{9D1FDE6F-6CE7-48B5-8FE2-8070845FD5C3}"/>
   </bookViews>
   <sheets>
-    <sheet name="1.4.0" sheetId="7" r:id="rId1"/>
-    <sheet name="1.4.0-rc7" sheetId="5" r:id="rId2"/>
-    <sheet name="1.3.5" sheetId="3" r:id="rId3"/>
-    <sheet name="1.3.3" sheetId="2" r:id="rId4"/>
-    <sheet name="1.2.3" sheetId="1" r:id="rId5"/>
+    <sheet name="1.4.6" sheetId="8" r:id="rId1"/>
+    <sheet name="1.4.0" sheetId="7" r:id="rId2"/>
+    <sheet name="1.4.0-rc7" sheetId="5" r:id="rId3"/>
+    <sheet name="1.3.5" sheetId="3" r:id="rId4"/>
+    <sheet name="1.3.3" sheetId="2" r:id="rId5"/>
+    <sheet name="1.2.3" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="46">
   <si>
     <t>apacheDbUtils</t>
   </si>
@@ -175,6 +176,14 @@
   <si>
     <t># Benchmark mode: Average time, time/op</t>
   </si>
+  <si>
+    <t>InsertOne</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>InsertMultiRow</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -240,7 +249,10 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -368,7 +380,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'1.4.0'!$H$29:$H$32</c:f>
+              <c:f>'1.4.6'!$H$29:$H$32</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -388,28 +400,28 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.4.0'!$J$29:$J$32</c:f>
+              <c:f>'1.4.6'!$J$29:$J$32</c:f>
               <c:numCache>
                 <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5.2</c:v>
+                  <c:v>5.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.7</c:v>
+                  <c:v>6.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.3000000000000007</c:v>
+                  <c:v>9.6999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.1</c:v>
+                  <c:v>12.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A75B-4828-8EC9-3180269D7448}"/>
+              <c16:uniqueId val="{00000000-CFFF-40BF-889D-05BF726C0A93}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -586,6 +598,1300 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Read</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>(microsec/operation)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.4.0-rc7'!$H$29:$H$36</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Hand coded (baseline)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sorm4j</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sql2o</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>JDBI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>JOOQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MyBatis</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Spring JdbcTemplate</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Apache DbUtils</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.4.0-rc7'!$I$29:$I$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-51AD-4854-B67F-07F1F8D9A525}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="747140943"/>
+        <c:axId val="639773647"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="747140943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="639773647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="639773647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="747140943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Read multi</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>row (microsec/operation)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.4.0-rc7'!$H$29:$H$34</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Hand coded (baseline)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sorm4j</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sql2o</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>JDBI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>JOOQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MyBatis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.4.0-rc7'!$K$29:$K$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3571</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3613</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4114</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4946</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14491</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9976</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AD49-4376-B48F-D2658A068B63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="747140943"/>
+        <c:axId val="639773647"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="747140943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="639773647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="639773647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="747140943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Insert multirow</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t> (microsec/operation)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.4.0-rc7'!$H$29:$H$32</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Hand coded (baseline)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sorm4j</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sql2o</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>JDBI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.4.0-rc7'!$L$29:$L$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>22376</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22475</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37147</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8EB7-4A43-BB94-B4E400899CDD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="747140943"/>
+        <c:axId val="639773647"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="747140943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="639773647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="639773647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="747140943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Insert</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>(microsec/operation)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.3.5'!$H$29:$H$32</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Hand coded (baseline)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sorm4j</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sql2o</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>JDBI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.3.5'!$J$29:$J$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-05E5-4B51-A21A-9730EBE5510E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="747140943"/>
+        <c:axId val="639773647"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="747140943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="639773647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="639773647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0_);[Red]\(0.0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="747140943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -925,7 +2231,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -1250,7 +2556,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -1563,7 +2869,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -1879,7 +3185,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -2219,7 +3525,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -2544,7 +3850,341 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Read</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>(microsec/operation)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.4.6'!$H$29:$H$35</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Hand coded (baseline)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sorm4j</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sql2o</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>JDBI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>JOOQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MyBatis</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Spring JdbcTemplate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.4.6'!$I$29:$I$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A000-4511-8356-4CB6AE2BA596}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="747140943"/>
+        <c:axId val="639773647"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="747140943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="639773647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="639773647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="747140943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -2857,7 +4497,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -3173,7 +4813,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -3513,7 +5153,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -3838,341 +5478,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>Read</a:t>
-            </a:r>
-            <a:br>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-            </a:br>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
-              <a:t>(microsec/operation)</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'1.4.0'!$H$29:$H$35</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Hand coded (baseline)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sorm4j</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sql2o</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>JDBI</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>JOOQ</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MyBatis</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Spring JdbcTemplate</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'1.4.0'!$I$29:$I$35</c:f>
-              <c:numCache>
-                <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42.9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.6999999999999993</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-76C6-46D6-88F5-A9E4F8E24FE5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="747140943"/>
-        <c:axId val="639773647"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="747140943"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="639773647"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="639773647"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="747140943"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -4581,6 +5887,1294 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
+              <c:f>'1.4.6'!$H$29:$H$34</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Hand coded (baseline)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sorm4j</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sql2o</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>JDBI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>JOOQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MyBatis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.4.6'!$K$29:$K$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3528</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3871</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5487</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14440</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10440</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AD27-4DF7-9139-8B301738C0C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="747140943"/>
+        <c:axId val="639773647"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="747140943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="639773647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="639773647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="747140943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Insert multirow</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t> (microsec/operation)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.4.6'!$H$29:$H$32</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Hand coded (baseline)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sorm4j</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sql2o</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>JDBI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.4.6'!$L$29:$L$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>24312</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21580</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42668</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37723</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1C8C-4BC1-83E2-3D6AB9601607}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="747140943"/>
+        <c:axId val="639773647"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="747140943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="639773647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="639773647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="747140943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Insert</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>(microsec/operation)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.4.0'!$H$29:$H$32</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Hand coded (baseline)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sorm4j</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sql2o</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>JDBI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.4.0'!$J$29:$J$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A75B-4828-8EC9-3180269D7448}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="747140943"/>
+        <c:axId val="639773647"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="747140943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="639773647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="639773647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0_);[Red]\(0.0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="747140943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Read</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>(microsec/operation)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.4.0'!$H$29:$H$35</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Hand coded (baseline)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sorm4j</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sql2o</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>JDBI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>JOOQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MyBatis</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Spring JdbcTemplate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.4.0'!$I$29:$I$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-76C6-46D6-88F5-A9E4F8E24FE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="747140943"/>
+        <c:axId val="639773647"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="747140943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="639773647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="639773647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="747140943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Read multi</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>row (microsec/operation)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
               <c:f>'1.4.0'!$H$29:$H$34</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
@@ -4810,7 +7404,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -5123,7 +7717,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -5264,1300 +7858,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F172-4615-BB68-9EEE41EA10B5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="747140943"/>
-        <c:axId val="639773647"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="747140943"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="639773647"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="639773647"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0_);[Red]\(0.0\)" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="747140943"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>Read</a:t>
-            </a:r>
-            <a:br>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-            </a:br>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
-              <a:t>(microsec/operation)</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'1.4.0-rc7'!$H$29:$H$36</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Hand coded (baseline)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sorm4j</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sql2o</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>JDBI</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>JOOQ</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MyBatis</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Spring JdbcTemplate</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Apache DbUtils</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'1.4.0-rc7'!$I$29:$I$36</c:f>
-              <c:numCache>
-                <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.5999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.6999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-51AD-4854-B67F-07F1F8D9A525}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="747140943"/>
-        <c:axId val="639773647"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="747140943"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="639773647"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="639773647"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="747140943"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>Read multi</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
-              <a:t>row (microsec/operation)</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'1.4.0-rc7'!$H$29:$H$34</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Hand coded (baseline)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sorm4j</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sql2o</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>JDBI</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>JOOQ</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MyBatis</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'1.4.0-rc7'!$K$29:$K$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>3571</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3613</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4114</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4946</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14491</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9976</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AD49-4376-B48F-D2658A068B63}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="747140943"/>
-        <c:axId val="639773647"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="747140943"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="639773647"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="639773647"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="747140943"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>Insert multirow</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
-              <a:t> (microsec/operation)</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'1.4.0-rc7'!$H$29:$H$32</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Hand coded (baseline)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sorm4j</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sql2o</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>JDBI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'1.4.0-rc7'!$L$29:$L$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>22376</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22475</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43301</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>37147</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8EB7-4A43-BB94-B4E400899CDD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="747140943"/>
-        <c:axId val="639773647"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="747140943"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="639773647"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="639773647"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="747140943"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>Insert</a:t>
-            </a:r>
-            <a:br>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-            </a:br>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
-              <a:t>(microsec/operation)</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'1.3.5'!$H$29:$H$32</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Hand coded (baseline)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sorm4j</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sql2o</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>JDBI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'1.3.5'!$J$29:$J$32</c:f>
-              <c:numCache>
-                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>6.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-05E5-4B51-A21A-9730EBE5510E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7253,6 +8553,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -14072,7 +15532,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14575,7 +16035,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15078,7 +16538,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15581,7 +17041,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style24.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16084,7 +17544,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16587,7 +18047,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17090,7 +18550,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17593,7 +19053,2176 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1136925</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>110175</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5038ACC1-9D66-43DC-83C6-7E1FF0F46FDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>654825</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>81600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEC91E1B-A649-4503-83D9-2C9D653A7E16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>159525</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>167326</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDC2A30A-C07D-4526-9A14-DF11241B1258}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>241575</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>148275</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="グラフ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50C782C5-39A8-45BE-9151-A3380EF1B321}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -17750,7 +21379,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -17907,7 +21536,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -18064,7 +21693,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -18221,7 +21850,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -18379,6 +22008,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D7AB1344-84CA-463B-BFA9-DDCCEE4E419B}" name="テーブル134567" displayName="テーブル134567" ref="A1:E22" totalsRowShown="0">
+  <autoFilter ref="A1:E22" xr:uid="{373D6382-5638-4456-A6E1-BFB64FFC50EB}"/>
+  <sortState ref="A2:E22">
+    <sortCondition ref="C1:C22"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{E24788B1-A6A7-43A4-9113-552C70893797}" name="lib"/>
+    <tableColumn id="2" xr3:uid="{12EE56EF-32B4-4C8F-A073-D481A7BE82D5}" name="task"/>
+    <tableColumn id="5" xr3:uid="{06150773-2353-4ABD-B767-721A2E2A719F}" name="lib and task" dataDxfId="0">
+      <calculatedColumnFormula>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{EEC6128A-F279-4D7B-A243-4D696A9B56E3}" name="duration"/>
+    <tableColumn id="4" xr3:uid="{9D464262-520E-4F04-B633-886892E6B044}" name="error"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0B099F85-E6F2-4D11-85FB-BA203DF3B02D}" name="テーブル13456" displayName="テーブル13456" ref="A1:E22" totalsRowShown="0">
   <autoFilter ref="A1:E22" xr:uid="{373D6382-5638-4456-A6E1-BFB64FFC50EB}"/>
   <sortState ref="A2:E22">
@@ -18387,7 +22035,7 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{97F4EC6B-DA3B-4915-A510-938A6FC3738F}" name="lib"/>
     <tableColumn id="2" xr3:uid="{6127BE2D-9B7F-448B-A8FF-EE3C12133C74}" name="task"/>
-    <tableColumn id="5" xr3:uid="{24F099FE-0840-44C9-B686-AF32AC370B2D}" name="lib and task" dataDxfId="4">
+    <tableColumn id="5" xr3:uid="{24F099FE-0840-44C9-B686-AF32AC370B2D}" name="lib and task" dataDxfId="5">
       <calculatedColumnFormula>CONCATENATE(テーブル13456[[#This Row],[lib]],テーブル13456[[#This Row],[task]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{87FE9707-B64B-4367-BE7A-F6A255A7A86A}" name="duration"/>
@@ -18397,7 +22045,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6482DFFA-EEF8-42ED-B03C-076350F6DC81}" name="テーブル1345" displayName="テーブル1345" ref="A1:E23" totalsRowShown="0">
   <autoFilter ref="A1:E23" xr:uid="{373D6382-5638-4456-A6E1-BFB64FFC50EB}"/>
   <sortState ref="A2:E23">
@@ -18406,7 +22054,7 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{71451F9A-3AD3-4846-BA33-20E74E7DA5B6}" name="lib"/>
     <tableColumn id="2" xr3:uid="{32F8D775-D6E0-43D9-849D-3A32EA2CD688}" name="task"/>
-    <tableColumn id="5" xr3:uid="{66EB42AC-EDA7-4981-9289-15B04796D7D7}" name="lib and task" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{66EB42AC-EDA7-4981-9289-15B04796D7D7}" name="lib and task" dataDxfId="4">
       <calculatedColumnFormula>CONCATENATE(テーブル1345[[#This Row],[lib]],テーブル1345[[#This Row],[task]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{7162A802-6D1F-4902-A6AB-6A3528728430}" name="duration"/>
@@ -18416,7 +22064,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{374BC028-046E-41DD-BDE2-60820EC6950B}" name="テーブル134" displayName="テーブル134" ref="A1:E23" totalsRowShown="0">
   <autoFilter ref="A1:E23" xr:uid="{373D6382-5638-4456-A6E1-BFB64FFC50EB}"/>
   <sortState ref="A2:E23">
@@ -18425,7 +22073,7 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D8392E82-4081-4F85-8F4E-C1DD0A819332}" name="lib"/>
     <tableColumn id="2" xr3:uid="{2F8D636A-574A-4027-963F-0FC9968E2894}" name="task"/>
-    <tableColumn id="5" xr3:uid="{37C07621-A2BA-443C-9C7B-440CFC442C87}" name="lib and task" dataDxfId="2">
+    <tableColumn id="5" xr3:uid="{37C07621-A2BA-443C-9C7B-440CFC442C87}" name="lib and task" dataDxfId="3">
       <calculatedColumnFormula>CONCATENATE(テーブル134[[#This Row],[lib]],テーブル134[[#This Row],[task]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{7B7A49A3-80E7-4FCE-95B6-9598DB5220E1}" name="duration"/>
@@ -18435,7 +22083,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6FF856B7-87CB-42F1-B811-6D2A4CA1C1D6}" name="テーブル13" displayName="テーブル13" ref="A1:E23" totalsRowShown="0">
   <autoFilter ref="A1:E23" xr:uid="{373D6382-5638-4456-A6E1-BFB64FFC50EB}"/>
   <sortState ref="A2:E23">
@@ -18444,7 +22092,7 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8CFB39E7-B247-4411-A62D-809545DB6450}" name="lib"/>
     <tableColumn id="2" xr3:uid="{5AD682B0-8F43-417A-BD50-1905AEF690E8}" name="task"/>
-    <tableColumn id="5" xr3:uid="{DBF65F0E-23DE-48C4-8D88-535B3EDFCCEE}" name="lib and task" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{DBF65F0E-23DE-48C4-8D88-535B3EDFCCEE}" name="lib and task" dataDxfId="2">
       <calculatedColumnFormula>CONCATENATE(テーブル13[[#This Row],[lib]],テーブル13[[#This Row],[task]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{EACA170B-3B26-44BA-A30D-2FC27608DB9D}" name="duration"/>
@@ -18454,7 +22102,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B3DFB630-8B09-4E21-9911-22AE76885298}" name="テーブル1" displayName="テーブル1" ref="A1:E23" totalsRowShown="0">
   <autoFilter ref="A1:E23" xr:uid="{373D6382-5638-4456-A6E1-BFB64FFC50EB}"/>
   <sortState ref="A2:E23">
@@ -18463,7 +22111,7 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{BDA0C84A-8310-466D-822F-3BAED5ADE7C7}" name="lib"/>
     <tableColumn id="2" xr3:uid="{B941DBC3-F5D3-43CF-882A-BD95A92D813D}" name="task"/>
-    <tableColumn id="5" xr3:uid="{44CBE539-07CA-447E-A480-F3EAD52E0CF4}" name="lib and task" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{44CBE539-07CA-447E-A480-F3EAD52E0CF4}" name="lib and task" dataDxfId="1">
       <calculatedColumnFormula>CONCATENATE(テーブル1[[#This Row],[lib]],テーブル1[[#This Row],[task]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{33AB3EE7-56D8-4457-8A4C-44DD4D0C79CA}" name="duration"/>
@@ -18769,10 +22417,975 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B0B8B75-6F0E-4753-BBED-797AF946B2F7}">
+  <dimension ref="A1:P36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="5.625" customWidth="1"/>
+    <col min="8" max="8" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.625" customWidth="1"/>
+    <col min="15" max="15" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="str">
+        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
+        <v>handCodedInsertMultiRow</v>
+      </c>
+      <c r="D2">
+        <v>24311.630406</v>
+      </c>
+      <c r="E2">
+        <v>1958.469106</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2">
+        <f>ROUND(VLOOKUP(CONCATENATE($H2,I$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K2" s="2">
+        <f>ROUND(VLOOKUP(CONCATENATE($H2,K$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>5.6</v>
+      </c>
+      <c r="M2">
+        <f>ROUND(VLOOKUP(CONCATENATE($H2,M$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>3528</v>
+      </c>
+      <c r="O2">
+        <f>ROUND(VLOOKUP(CONCATENATE($H2,O$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>24312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="str">
+        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
+        <v>handCodedInsertOne</v>
+      </c>
+      <c r="D3">
+        <v>5.5983700000000001</v>
+      </c>
+      <c r="E3">
+        <v>8.2034999999999997E-2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="2">
+        <f>ROUND(VLOOKUP(CONCATENATE($H3,I$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>3.8</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J8" si="0">"(" &amp;ROUND((I3-I$2)/I$2*100,0)&amp;"% slower)"</f>
+        <v>(-14% slower)</v>
+      </c>
+      <c r="K3" s="2">
+        <f>ROUND(VLOOKUP(CONCATENATE($H3,K$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>6.1</v>
+      </c>
+      <c r="L3" t="str">
+        <f>"(" &amp;ROUND((K3-K$2)/K$2*100,0)&amp;"% slower)"</f>
+        <v>(9% slower)</v>
+      </c>
+      <c r="M3">
+        <f>ROUND(VLOOKUP(CONCATENATE($H3,M$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>3175</v>
+      </c>
+      <c r="N3" t="str">
+        <f>"(" &amp;ROUND((M3-M$2)/M$2*100,0)&amp;"% slower)"</f>
+        <v>(-10% slower)</v>
+      </c>
+      <c r="O3">
+        <f>ROUND(VLOOKUP(CONCATENATE($H3,O$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>21580</v>
+      </c>
+      <c r="P3" t="str">
+        <f>"(" &amp;ROUND((O3-O$2)/O$2*100,0)&amp;"% slower)"</f>
+        <v>(-11% slower)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="str">
+        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
+        <v>handCodedReadAll</v>
+      </c>
+      <c r="D4">
+        <v>3527.6194300000002</v>
+      </c>
+      <c r="E4">
+        <v>29.259702999999998</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="2">
+        <f>ROUND(VLOOKUP(CONCATENATE($H4,I$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>6.5</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>(48% slower)</v>
+      </c>
+      <c r="K4" s="2">
+        <f>ROUND(VLOOKUP(CONCATENATE($H4,K$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="L4" t="str">
+        <f>"(" &amp;ROUND((K4-K$2)/K$2*100,0)&amp;"% slower)"</f>
+        <v>(73% slower)</v>
+      </c>
+      <c r="M4">
+        <f>ROUND(VLOOKUP(CONCATENATE($H4,M$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>3871</v>
+      </c>
+      <c r="N4" t="str">
+        <f>"(" &amp;ROUND((M4-M$2)/M$2*100,0)&amp;"% slower)"</f>
+        <v>(10% slower)</v>
+      </c>
+      <c r="O4">
+        <f>ROUND(VLOOKUP(CONCATENATE($H4,O$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>42668</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" ref="P4:P5" si="1">"(" &amp;ROUND((O4-O$2)/O$2*100,0)&amp;"% slower)"</f>
+        <v>(76% slower)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="str">
+        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
+        <v>handCodedReadOne</v>
+      </c>
+      <c r="D5">
+        <v>4.4011610000000001</v>
+      </c>
+      <c r="E5">
+        <v>9.2593999999999996E-2</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="2">
+        <f>ROUND(VLOOKUP(CONCATENATE($H5,I$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>17</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>(286% slower)</v>
+      </c>
+      <c r="K5" s="2">
+        <f>ROUND(VLOOKUP(CONCATENATE($H5,K$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>12.7</v>
+      </c>
+      <c r="L5" t="str">
+        <f>"(" &amp;ROUND((K5-K$2)/K$2*100,0)&amp;"% slower)"</f>
+        <v>(127% slower)</v>
+      </c>
+      <c r="M5">
+        <f>ROUND(VLOOKUP(CONCATENATE($H5,M$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>5487</v>
+      </c>
+      <c r="N5" t="str">
+        <f>"(" &amp;ROUND((M5-M$2)/M$2*100,0)&amp;"% slower)"</f>
+        <v>(56% slower)</v>
+      </c>
+      <c r="O5">
+        <f>ROUND(VLOOKUP(CONCATENATE($H5,O$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>37723</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="1"/>
+        <v>(55% slower)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="str">
+        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
+        <v>jDBIInsertMultiRow</v>
+      </c>
+      <c r="D6">
+        <v>37722.563239000003</v>
+      </c>
+      <c r="E6">
+        <v>1171.8946759999999</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="2">
+        <f>ROUND(VLOOKUP(CONCATENATE($H6,I$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>44.2</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>(905% slower)</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="M6">
+        <f>ROUND(VLOOKUP(CONCATENATE($H6,M$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>14440</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" ref="N6:N7" si="2">"(" &amp;ROUND((M6-M$2)/M$2*100,0)&amp;"% slower)"</f>
+        <v>(309% slower)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="str">
+        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
+        <v>jDBIInsertOne</v>
+      </c>
+      <c r="D7">
+        <v>12.715870000000001</v>
+      </c>
+      <c r="E7">
+        <v>0.355549</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="2">
+        <f>ROUND(VLOOKUP(CONCATENATE($H7,I$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>(132% slower)</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="M7">
+        <f>ROUND(VLOOKUP(CONCATENATE($H7,M$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>10440</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="2"/>
+        <v>(196% slower)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="str">
+        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
+        <v>jDBIReadAll</v>
+      </c>
+      <c r="D8">
+        <v>5486.9310809999997</v>
+      </c>
+      <c r="E8">
+        <v>504.04466500000001</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="2">
+        <f>ROUND(VLOOKUP(CONCATENATE($H8,I$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>9.1</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>(107% slower)</v>
+      </c>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="str">
+        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
+        <v>jDBIReadOne</v>
+      </c>
+      <c r="D9">
+        <v>17.015643000000001</v>
+      </c>
+      <c r="E9">
+        <v>0.59322600000000003</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="str">
+        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
+        <v>jOOQReadAll</v>
+      </c>
+      <c r="D10">
+        <v>14440.320627999999</v>
+      </c>
+      <c r="E10">
+        <v>269.76902799999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="str">
+        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
+        <v>jOOQReadOne</v>
+      </c>
+      <c r="D11">
+        <v>44.217444</v>
+      </c>
+      <c r="E11">
+        <v>1.3596839999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="str">
+        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
+        <v>myBatisReadAll</v>
+      </c>
+      <c r="D12">
+        <v>10439.739573000001</v>
+      </c>
+      <c r="E12">
+        <v>338.812389</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="str">
+        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
+        <v>myBatisReadOne</v>
+      </c>
+      <c r="D13">
+        <v>10.229937</v>
+      </c>
+      <c r="E13">
+        <v>0.166439</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="str">
+        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
+        <v>sormInsertMultiRow</v>
+      </c>
+      <c r="D14">
+        <v>21580.075761</v>
+      </c>
+      <c r="E14">
+        <v>1684.887156</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="str">
+        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
+        <v>sormInsertOne</v>
+      </c>
+      <c r="D15">
+        <v>6.0739270000000003</v>
+      </c>
+      <c r="E15">
+        <v>0.20077700000000001</v>
+      </c>
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" t="str">
+        <f>_xlfn.CONCAT(TEXT(I2,".0")," ",J2)</f>
+        <v xml:space="preserve">4.4 </v>
+      </c>
+      <c r="J15" t="str">
+        <f>_xlfn.CONCAT(TEXT(K2,".0")," ",L2)</f>
+        <v xml:space="preserve">5.6 </v>
+      </c>
+      <c r="K15" t="str">
+        <f>_xlfn.CONCAT(M2," ",N2)</f>
+        <v xml:space="preserve">3528 </v>
+      </c>
+      <c r="L15" t="str">
+        <f>_xlfn.CONCAT(O2," ",P2)</f>
+        <v xml:space="preserve">24312 </v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="str">
+        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
+        <v>sormReadAll</v>
+      </c>
+      <c r="D16">
+        <v>3175.2345570000002</v>
+      </c>
+      <c r="E16">
+        <v>94.125283999999994</v>
+      </c>
+      <c r="H16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" ref="I16:I21" si="3">_xlfn.CONCAT(TEXT(I3,".0")," ",J3)</f>
+        <v>3.8 (-14% slower)</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" ref="J16:J18" si="4">_xlfn.CONCAT(TEXT(K3,".0")," ",L3)</f>
+        <v>6.1 (9% slower)</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" ref="K16:K20" si="5">_xlfn.CONCAT(M3," ",N3)</f>
+        <v>3175 (-10% slower)</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" ref="L16:L18" si="6">_xlfn.CONCAT(O3," ",P3)</f>
+        <v>21580 (-11% slower)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="str">
+        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
+        <v>sormReadOne</v>
+      </c>
+      <c r="D17">
+        <v>3.8410449999999998</v>
+      </c>
+      <c r="E17">
+        <v>0.12715599999999999</v>
+      </c>
+      <c r="H17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="3"/>
+        <v>6.5 (48% slower)</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="4"/>
+        <v>9.7 (73% slower)</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="5"/>
+        <v>3871 (10% slower)</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="6"/>
+        <v>42668 (76% slower)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="str">
+        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
+        <v>springJdbcTemplateReadOne</v>
+      </c>
+      <c r="D18">
+        <v>9.060473</v>
+      </c>
+      <c r="E18">
+        <v>0.32297900000000002</v>
+      </c>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="3"/>
+        <v>17.0 (286% slower)</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="4"/>
+        <v>12.7 (127% slower)</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="5"/>
+        <v>5487 (56% slower)</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="6"/>
+        <v>37723 (55% slower)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="str">
+        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
+        <v>sql2oInsertMultiRow</v>
+      </c>
+      <c r="D19">
+        <v>42668.089798000001</v>
+      </c>
+      <c r="E19">
+        <v>1324.6876319999999</v>
+      </c>
+      <c r="H19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="3"/>
+        <v>44.2 (905% slower)</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" ref="J19:J22" si="7">_xlfn.CONCAT(K6," ",L6)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="5"/>
+        <v>14440 (309% slower)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="str">
+        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
+        <v>sql2oInsertOne</v>
+      </c>
+      <c r="D20">
+        <v>9.6568500000000004</v>
+      </c>
+      <c r="E20">
+        <v>0.168763</v>
+      </c>
+      <c r="H20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="3"/>
+        <v>10.2 (132% slower)</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="5"/>
+        <v>10440 (196% slower)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="str">
+        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
+        <v>sql2oReadAll</v>
+      </c>
+      <c r="D21">
+        <v>3871.3733360000001</v>
+      </c>
+      <c r="E21">
+        <v>161.72050200000001</v>
+      </c>
+      <c r="H21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="3"/>
+        <v>9.1 (107% slower)</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="str">
+        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
+        <v>sql2oReadOne</v>
+      </c>
+      <c r="D22">
+        <v>6.5020759999999997</v>
+      </c>
+      <c r="E22">
+        <v>0.17773700000000001</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="2">
+        <f>I2</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J29" s="3">
+        <f>K2</f>
+        <v>5.6</v>
+      </c>
+      <c r="K29">
+        <f>M2</f>
+        <v>3528</v>
+      </c>
+      <c r="L29">
+        <f>O2</f>
+        <v>24312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" s="2">
+        <f t="shared" ref="I30:I35" si="8">I3</f>
+        <v>3.8</v>
+      </c>
+      <c r="J30" s="3">
+        <f t="shared" ref="J30:J35" si="9">K3</f>
+        <v>6.1</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ref="K30:K35" si="10">M3</f>
+        <v>3175</v>
+      </c>
+      <c r="L30">
+        <f t="shared" ref="L30:L35" si="11">O3</f>
+        <v>21580</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="8"/>
+        <v>6.5</v>
+      </c>
+      <c r="J31" s="3">
+        <f t="shared" si="9"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="10"/>
+        <v>3871</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="11"/>
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32" s="2">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="J32" s="3">
+        <f t="shared" si="9"/>
+        <v>12.7</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="10"/>
+        <v>5487</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="11"/>
+        <v>37723</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="2">
+        <f t="shared" si="8"/>
+        <v>44.2</v>
+      </c>
+      <c r="J33" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="10"/>
+        <v>14440</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H34" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" s="2">
+        <f t="shared" si="8"/>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="J34" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="10"/>
+        <v>10440</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H35" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" s="2">
+        <f t="shared" si="8"/>
+        <v>9.1</v>
+      </c>
+      <c r="J35" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="I36" s="2"/>
+      <c r="J36" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D5D3ACD-9F98-4EB6-8D76-E5E3AF866B50}">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
@@ -19733,7 +24346,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561FE2CA-532F-468B-B85D-2BC2BE90541A}">
   <dimension ref="A1:P36"/>
   <sheetViews>
@@ -20712,7 +25325,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AEA92FB-C8A3-4D71-8FD1-F1E3E1533838}">
   <dimension ref="A1:P36"/>
   <sheetViews>
@@ -21691,7 +26304,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F61CF37D-7215-4EC5-A064-DD48DD457397}">
   <dimension ref="A1:P36"/>
   <sheetViews>
@@ -22670,7 +27283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35445E73-0859-4F64-B8BC-312647143468}">
   <dimension ref="A1:P36"/>
   <sheetViews>

--- a/sorm4j-jmh/public/result/jmh-results.xlsx
+++ b/sorm4j-jmh/public/result/jmh-results.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\home\ws\sorm4j\sorm4j-jmh\public\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97C84EE-B134-44F6-9BB2-5C6A66BD482A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0E20F3-93C8-45E5-A12A-2B3A6548292C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{9D1FDE6F-6CE7-48B5-8FE2-8070845FD5C3}"/>
   </bookViews>
   <sheets>
-    <sheet name="1.4.6" sheetId="8" r:id="rId1"/>
-    <sheet name="1.4.0" sheetId="7" r:id="rId2"/>
-    <sheet name="1.4.0-rc7" sheetId="5" r:id="rId3"/>
-    <sheet name="1.3.5" sheetId="3" r:id="rId4"/>
-    <sheet name="1.3.3" sheetId="2" r:id="rId5"/>
-    <sheet name="1.2.3" sheetId="1" r:id="rId6"/>
+    <sheet name="1.4.9" sheetId="9" r:id="rId1"/>
+    <sheet name="1.4.6" sheetId="8" r:id="rId2"/>
+    <sheet name="1.4.0" sheetId="7" r:id="rId3"/>
+    <sheet name="1.4.0-rc7" sheetId="5" r:id="rId4"/>
+    <sheet name="1.3.5" sheetId="3" r:id="rId5"/>
+    <sheet name="1.3.3" sheetId="2" r:id="rId6"/>
+    <sheet name="1.2.3" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="56">
   <si>
     <t>apacheDbUtils</t>
   </si>
@@ -184,6 +185,36 @@
     <t>InsertMultiRow</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t># VM version: JDK 17.0.3, OpenJDK 64-Bit Server VM, 17.0.3+7</t>
+  </si>
+  <si>
+    <t># VM invoker: E:\Dropbox\opt\java\EclipseTemurin\jdk-17.0.3.7-hotspot\bin\java.exe</t>
+  </si>
+  <si>
+    <t>InsertMultiRow</t>
+  </si>
+  <si>
+    <t>sormInsertMultiRow</t>
+  </si>
+  <si>
+    <t>InsertOne</t>
+  </si>
+  <si>
+    <t>sormInsertOne</t>
+  </si>
+  <si>
+    <t>ReadAll</t>
+  </si>
+  <si>
+    <t>sormReadAll</t>
+  </si>
+  <si>
+    <t>ReadOne</t>
+  </si>
+  <si>
+    <t>sormReadOne</t>
+  </si>
 </sst>
 </file>
 
@@ -249,7 +280,10 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -380,7 +414,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'1.4.6'!$H$29:$H$32</c:f>
+              <c:f>'1.4.9'!$H$29:$H$32</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -400,28 +434,28 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.4.6'!$J$29:$J$32</c:f>
+              <c:f>'1.4.9'!$J$29:$J$32</c:f>
               <c:numCache>
                 <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5.6</c:v>
+                  <c:v>5.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.6999999999999993</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.7</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CFFF-40BF-889D-05BF726C0A93}"/>
+              <c16:uniqueId val="{00000000-1233-4C2C-B538-749B21D4BEF3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -598,6 +632,1294 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Read</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>(microsec/operation)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.4.0'!$H$29:$H$35</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Hand coded (baseline)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sorm4j</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sql2o</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>JDBI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>JOOQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MyBatis</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Spring JdbcTemplate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.4.0'!$I$29:$I$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-76C6-46D6-88F5-A9E4F8E24FE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="747140943"/>
+        <c:axId val="639773647"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="747140943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="639773647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="639773647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="747140943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Read multi</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>row (microsec/operation)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.4.0'!$H$29:$H$34</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Hand coded (baseline)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sorm4j</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sql2o</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>JDBI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>JOOQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MyBatis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.4.0'!$K$29:$K$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3405</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3091</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3878</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14123</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10083</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B89D-474C-ADAC-352F4977B3AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="747140943"/>
+        <c:axId val="639773647"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="747140943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="639773647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="639773647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="747140943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Insert multirow</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t> (microsec/operation)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.4.0'!$H$29:$H$32</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Hand coded (baseline)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sorm4j</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sql2o</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>JDBI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.4.0'!$L$29:$L$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>21135</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21259</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41126</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37644</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5192-4F8F-A569-5BCBE51FDAE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="747140943"/>
+        <c:axId val="639773647"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="747140943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="639773647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="639773647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="747140943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Insert</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>(microsec/operation)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.4.0-rc7'!$H$29:$H$32</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Hand coded (baseline)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sorm4j</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sql2o</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>JDBI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.4.0-rc7'!$J$29:$J$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F172-4615-BB68-9EEE41EA10B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="747140943"/>
+        <c:axId val="639773647"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="747140943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="639773647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="639773647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0_);[Red]\(0.0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="747140943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -937,7 +2259,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -1262,7 +2584,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -1575,7 +2897,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -1891,7 +3213,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -2231,7 +3553,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -2556,7 +3878,341 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Read</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>(microsec/operation)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.4.9'!$H$29:$H$35</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Hand coded (baseline)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sorm4j</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sql2o</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>JDBI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>JOOQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MyBatis</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Spring JdbcTemplate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.4.9'!$I$29:$I$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9A28-43E7-A818-E948A040D619}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="747140943"/>
+        <c:axId val="639773647"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="747140943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="639773647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="639773647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="747140943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -2869,7 +4525,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -3185,7 +4841,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -3525,7 +5181,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -3850,341 +5506,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>Read</a:t>
-            </a:r>
-            <a:br>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-            </a:br>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
-              <a:t>(microsec/operation)</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'1.4.6'!$H$29:$H$35</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Hand coded (baseline)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sorm4j</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sql2o</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>JDBI</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>JOOQ</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MyBatis</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Spring JdbcTemplate</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'1.4.6'!$I$29:$I$35</c:f>
-              <c:numCache>
-                <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>4.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10.199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A000-4511-8356-4CB6AE2BA596}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="747140943"/>
-        <c:axId val="639773647"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="747140943"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="639773647"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="639773647"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="747140943"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -4497,7 +5819,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -4813,7 +6135,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -5153,7 +6475,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -5478,7 +6800,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -5887,6 +7209,1294 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
+              <c:f>'1.4.9'!$H$29:$H$34</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Hand coded (baseline)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sorm4j</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sql2o</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>JDBI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>JOOQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MyBatis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.4.9'!$K$29:$K$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3427</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3219</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C074-455B-9D84-36ADB46CF9B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="747140943"/>
+        <c:axId val="639773647"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="747140943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="639773647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="639773647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="747140943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Insert multirow</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t> (microsec/operation)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.4.9'!$H$29:$H$32</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Hand coded (baseline)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sorm4j</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sql2o</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>JDBI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.4.9'!$L$29:$L$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>23642</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21898</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FBD4-4222-9308-B4202B5748DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="747140943"/>
+        <c:axId val="639773647"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="747140943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="639773647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="639773647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="747140943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Insert</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>(microsec/operation)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.4.6'!$H$29:$H$32</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Hand coded (baseline)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sorm4j</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sql2o</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>JDBI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.4.6'!$J$29:$J$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CFFF-40BF-889D-05BF726C0A93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="747140943"/>
+        <c:axId val="639773647"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="747140943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="639773647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="639773647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0_);[Red]\(0.0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="747140943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Read</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>(microsec/operation)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.4.6'!$H$29:$H$35</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Hand coded (baseline)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sorm4j</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sql2o</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>JDBI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>JOOQ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MyBatis</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Spring JdbcTemplate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.4.6'!$I$29:$I$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A000-4511-8356-4CB6AE2BA596}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="747140943"/>
+        <c:axId val="639773647"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="747140943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="639773647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="639773647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="747140943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Read multi</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>row (microsec/operation)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
               <c:f>'1.4.6'!$H$29:$H$34</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
@@ -6116,7 +8726,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -6429,7 +9039,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -6570,1294 +9180,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A75B-4828-8EC9-3180269D7448}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="747140943"/>
-        <c:axId val="639773647"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="747140943"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="639773647"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="639773647"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0_);[Red]\(0.0\)" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="747140943"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>Read</a:t>
-            </a:r>
-            <a:br>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-            </a:br>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
-              <a:t>(microsec/operation)</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'1.4.0'!$H$29:$H$35</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Hand coded (baseline)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sorm4j</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sql2o</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>JDBI</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>JOOQ</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MyBatis</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Spring JdbcTemplate</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'1.4.0'!$I$29:$I$35</c:f>
-              <c:numCache>
-                <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42.9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.6999999999999993</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-76C6-46D6-88F5-A9E4F8E24FE5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="747140943"/>
-        <c:axId val="639773647"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="747140943"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="639773647"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="639773647"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="747140943"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>Read multi</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
-              <a:t>row (microsec/operation)</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'1.4.0'!$H$29:$H$34</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Hand coded (baseline)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sorm4j</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sql2o</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>JDBI</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>JOOQ</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MyBatis</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'1.4.0'!$K$29:$K$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>3405</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3091</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3878</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5128</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14123</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10083</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B89D-474C-ADAC-352F4977B3AA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="747140943"/>
-        <c:axId val="639773647"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="747140943"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="639773647"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="639773647"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="747140943"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>Insert multirow</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
-              <a:t> (microsec/operation)</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'1.4.0'!$H$29:$H$32</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Hand coded (baseline)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sorm4j</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sql2o</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>JDBI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'1.4.0'!$L$29:$L$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>21135</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>21259</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41126</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>37644</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5192-4F8F-A569-5BCBE51FDAE3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="747140943"/>
-        <c:axId val="639773647"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="747140943"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="639773647"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="639773647"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="747140943"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>Insert</a:t>
-            </a:r>
-            <a:br>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-            </a:br>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
-              <a:t>(microsec/operation)</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'1.4.0-rc7'!$H$29:$H$32</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Hand coded (baseline)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sorm4j</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sql2o</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>JDBI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'1.4.0-rc7'!$J$29:$J$32</c:f>
-              <c:numCache>
-                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F172-4615-BB68-9EEE41EA10B5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8713,6 +10035,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors25.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors26.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors27.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors28.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -17544,7 +19026,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style25.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -18047,7 +19529,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style26.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -18550,7 +20032,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style27.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -19053,7 +20535,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style28.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -19556,7 +21038,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -20059,7 +21541,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -20562,7 +22044,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -21065,7 +22547,2176 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1136925</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>110175</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4455CCA4-5BF8-46DC-A59C-4BE528DEB513}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>654825</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>81600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57A30B21-016A-477D-9C13-3D40C42C59CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>159525</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>167326</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C114592-B256-4CC7-B23E-AA41E21F7A65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>241575</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>148275</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="グラフ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AE48B7E-FA39-4F14-B0A2-0952C26FB21D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -21222,7 +24873,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -21379,7 +25030,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -21536,7 +25187,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -21693,7 +25344,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -21850,7 +25501,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -22008,15 +25659,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D7AB1344-84CA-463B-BFA9-DDCCEE4E419B}" name="テーブル134567" displayName="テーブル134567" ref="A1:E22" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{EA0A5377-5725-4EE7-95B6-A1907B1A206C}" name="テーブル1345678" displayName="テーブル1345678" ref="A1:E22" totalsRowShown="0">
   <autoFilter ref="A1:E22" xr:uid="{373D6382-5638-4456-A6E1-BFB64FFC50EB}"/>
   <sortState ref="A2:E22">
     <sortCondition ref="C1:C22"/>
   </sortState>
   <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{79CBC1CA-54E5-4470-B710-37065A5C650F}" name="lib"/>
+    <tableColumn id="2" xr3:uid="{6367EBD7-723E-474F-AA7E-F043074A0231}" name="task"/>
+    <tableColumn id="5" xr3:uid="{BDF4F38B-BC73-4101-A113-0CE2712BCED7}" name="lib and task" dataDxfId="0">
+      <calculatedColumnFormula>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{3F7F0BF9-DF0B-4D58-9ADC-A65B0010D954}" name="duration"/>
+    <tableColumn id="4" xr3:uid="{16B110E2-56B3-49C3-9BA2-4F2F467EB929}" name="error"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D7AB1344-84CA-463B-BFA9-DDCCEE4E419B}" name="テーブル134567" displayName="テーブル134567" ref="A1:E22" totalsRowShown="0">
+  <autoFilter ref="A1:E22" xr:uid="{373D6382-5638-4456-A6E1-BFB64FFC50EB}"/>
+  <sortState ref="A2:E22">
+    <sortCondition ref="A1:A22"/>
+  </sortState>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{E24788B1-A6A7-43A4-9113-552C70893797}" name="lib"/>
     <tableColumn id="2" xr3:uid="{12EE56EF-32B4-4C8F-A073-D481A7BE82D5}" name="task"/>
-    <tableColumn id="5" xr3:uid="{06150773-2353-4ABD-B767-721A2E2A719F}" name="lib and task" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{06150773-2353-4ABD-B767-721A2E2A719F}" name="lib and task" dataDxfId="6">
       <calculatedColumnFormula>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{EEC6128A-F279-4D7B-A243-4D696A9B56E3}" name="duration"/>
@@ -22026,7 +25696,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0B099F85-E6F2-4D11-85FB-BA203DF3B02D}" name="テーブル13456" displayName="テーブル13456" ref="A1:E22" totalsRowShown="0">
   <autoFilter ref="A1:E22" xr:uid="{373D6382-5638-4456-A6E1-BFB64FFC50EB}"/>
   <sortState ref="A2:E22">
@@ -22045,7 +25715,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6482DFFA-EEF8-42ED-B03C-076350F6DC81}" name="テーブル1345" displayName="テーブル1345" ref="A1:E23" totalsRowShown="0">
   <autoFilter ref="A1:E23" xr:uid="{373D6382-5638-4456-A6E1-BFB64FFC50EB}"/>
   <sortState ref="A2:E23">
@@ -22064,7 +25734,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{374BC028-046E-41DD-BDE2-60820EC6950B}" name="テーブル134" displayName="テーブル134" ref="A1:E23" totalsRowShown="0">
   <autoFilter ref="A1:E23" xr:uid="{373D6382-5638-4456-A6E1-BFB64FFC50EB}"/>
   <sortState ref="A2:E23">
@@ -22083,7 +25753,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6FF856B7-87CB-42F1-B811-6D2A4CA1C1D6}" name="テーブル13" displayName="テーブル13" ref="A1:E23" totalsRowShown="0">
   <autoFilter ref="A1:E23" xr:uid="{373D6382-5638-4456-A6E1-BFB64FFC50EB}"/>
   <sortState ref="A2:E23">
@@ -22102,7 +25772,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B3DFB630-8B09-4E21-9911-22AE76885298}" name="テーブル1" displayName="テーブル1" ref="A1:E23" totalsRowShown="0">
   <autoFilter ref="A1:E23" xr:uid="{373D6382-5638-4456-A6E1-BFB64FFC50EB}"/>
   <sortState ref="A2:E23">
@@ -22417,11 +26087,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B0B8B75-6F0E-4753-BBED-797AF946B2F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83B9A4E-4D3F-4874-8B2B-3D2CF4F6AED7}">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -22484,29 +26154,29 @@
         <v>handCodedInsertMultiRow</v>
       </c>
       <c r="D2">
-        <v>24311.630406</v>
+        <v>23641.852900000002</v>
       </c>
       <c r="E2">
-        <v>1958.469106</v>
+        <v>2008.9288019999999</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I2" s="2">
-        <f>ROUND(VLOOKUP(CONCATENATE($H2,I$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <f>ROUND(VLOOKUP(CONCATENATE($H2,I$1),テーブル1345678[[#All],[lib and task]:[error]],2,FALSE),1)</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="K2" s="2">
-        <f>ROUND(VLOOKUP(CONCATENATE($H2,K$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),1)</f>
-        <v>5.6</v>
+        <f>ROUND(VLOOKUP(CONCATENATE($H2,K$1),テーブル1345678[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>5.4</v>
       </c>
       <c r="M2">
-        <f>ROUND(VLOOKUP(CONCATENATE($H2,M$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),0)</f>
-        <v>3528</v>
+        <f>ROUND(VLOOKUP(CONCATENATE($H2,M$1),テーブル1345678[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>3427</v>
       </c>
       <c r="O2">
-        <f>ROUND(VLOOKUP(CONCATENATE($H2,O$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),0)</f>
-        <v>24312</v>
+        <f>ROUND(VLOOKUP(CONCATENATE($H2,O$1),テーブル1345678[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>23642</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.4">
@@ -22521,16 +26191,16 @@
         <v>handCodedInsertOne</v>
       </c>
       <c r="D3">
-        <v>5.5983700000000001</v>
+        <v>5.4042450000000004</v>
       </c>
       <c r="E3">
-        <v>8.2034999999999997E-2</v>
+        <v>0.102744</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="2">
-        <f>ROUND(VLOOKUP(CONCATENATE($H3,I$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <f>ROUND(VLOOKUP(CONCATENATE($H3,I$1),テーブル1345678[[#All],[lib and task]:[error]],2,FALSE),1)</f>
         <v>3.8</v>
       </c>
       <c r="J3" t="str">
@@ -22538,28 +26208,28 @@
         <v>(-14% slower)</v>
       </c>
       <c r="K3" s="2">
-        <f>ROUND(VLOOKUP(CONCATENATE($H3,K$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),1)</f>
-        <v>6.1</v>
+        <f>ROUND(VLOOKUP(CONCATENATE($H3,K$1),テーブル1345678[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>6</v>
       </c>
       <c r="L3" t="str">
         <f>"(" &amp;ROUND((K3-K$2)/K$2*100,0)&amp;"% slower)"</f>
-        <v>(9% slower)</v>
+        <v>(11% slower)</v>
       </c>
       <c r="M3">
-        <f>ROUND(VLOOKUP(CONCATENATE($H3,M$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),0)</f>
-        <v>3175</v>
+        <f>ROUND(VLOOKUP(CONCATENATE($H3,M$1),テーブル1345678[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>3219</v>
       </c>
       <c r="N3" t="str">
         <f>"(" &amp;ROUND((M3-M$2)/M$2*100,0)&amp;"% slower)"</f>
-        <v>(-10% slower)</v>
+        <v>(-6% slower)</v>
       </c>
       <c r="O3">
-        <f>ROUND(VLOOKUP(CONCATENATE($H3,O$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),0)</f>
-        <v>21580</v>
+        <f>ROUND(VLOOKUP(CONCATENATE($H3,O$1),テーブル1345678[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>21898</v>
       </c>
       <c r="P3" t="str">
         <f>"(" &amp;ROUND((O3-O$2)/O$2*100,0)&amp;"% slower)"</f>
-        <v>(-11% slower)</v>
+        <v>(-7% slower)</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.4">
@@ -22574,45 +26244,45 @@
         <v>handCodedReadAll</v>
       </c>
       <c r="D4">
-        <v>3527.6194300000002</v>
+        <v>3426.75054</v>
       </c>
       <c r="E4">
-        <v>29.259702999999998</v>
+        <v>70.087158000000002</v>
       </c>
       <c r="H4" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="2">
-        <f>ROUND(VLOOKUP(CONCATENATE($H4,I$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),1)</f>
-        <v>6.5</v>
-      </c>
-      <c r="J4" t="str">
+      <c r="I4" s="2" t="e">
+        <f>ROUND(VLOOKUP(CONCATENATE($H4,I$1),テーブル1345678[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J4" t="e">
         <f t="shared" si="0"/>
-        <v>(48% slower)</v>
-      </c>
-      <c r="K4" s="2">
-        <f>ROUND(VLOOKUP(CONCATENATE($H4,K$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),1)</f>
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="L4" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="K4" s="2" t="e">
+        <f>ROUND(VLOOKUP(CONCATENATE($H4,K$1),テーブル1345678[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L4" t="e">
         <f>"(" &amp;ROUND((K4-K$2)/K$2*100,0)&amp;"% slower)"</f>
-        <v>(73% slower)</v>
-      </c>
-      <c r="M4">
-        <f>ROUND(VLOOKUP(CONCATENATE($H4,M$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),0)</f>
-        <v>3871</v>
-      </c>
-      <c r="N4" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M4" t="e">
+        <f>ROUND(VLOOKUP(CONCATENATE($H4,M$1),テーブル1345678[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N4" t="e">
         <f>"(" &amp;ROUND((M4-M$2)/M$2*100,0)&amp;"% slower)"</f>
-        <v>(10% slower)</v>
-      </c>
-      <c r="O4">
-        <f>ROUND(VLOOKUP(CONCATENATE($H4,O$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),0)</f>
-        <v>42668</v>
-      </c>
-      <c r="P4" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O4" t="e">
+        <f>ROUND(VLOOKUP(CONCATENATE($H4,O$1),テーブル1345678[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P4" t="e">
         <f t="shared" ref="P4:P5" si="1">"(" &amp;ROUND((O4-O$2)/O$2*100,0)&amp;"% slower)"</f>
-        <v>(76% slower)</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.4">
@@ -22627,262 +26297,170 @@
         <v>handCodedReadOne</v>
       </c>
       <c r="D5">
-        <v>4.4011610000000001</v>
+        <v>4.4445119999999996</v>
       </c>
       <c r="E5">
-        <v>9.2593999999999996E-2</v>
+        <v>9.1495999999999994E-2</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="2">
-        <f>ROUND(VLOOKUP(CONCATENATE($H5,I$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),1)</f>
-        <v>17</v>
-      </c>
-      <c r="J5" t="str">
+      <c r="I5" s="2" t="e">
+        <f>ROUND(VLOOKUP(CONCATENATE($H5,I$1),テーブル1345678[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J5" t="e">
         <f t="shared" si="0"/>
-        <v>(286% slower)</v>
-      </c>
-      <c r="K5" s="2">
-        <f>ROUND(VLOOKUP(CONCATENATE($H5,K$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),1)</f>
-        <v>12.7</v>
-      </c>
-      <c r="L5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="K5" s="2" t="e">
+        <f>ROUND(VLOOKUP(CONCATENATE($H5,K$1),テーブル1345678[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L5" t="e">
         <f>"(" &amp;ROUND((K5-K$2)/K$2*100,0)&amp;"% slower)"</f>
-        <v>(127% slower)</v>
-      </c>
-      <c r="M5">
-        <f>ROUND(VLOOKUP(CONCATENATE($H5,M$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),0)</f>
-        <v>5487</v>
-      </c>
-      <c r="N5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M5" t="e">
+        <f>ROUND(VLOOKUP(CONCATENATE($H5,M$1),テーブル1345678[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N5" t="e">
         <f>"(" &amp;ROUND((M5-M$2)/M$2*100,0)&amp;"% slower)"</f>
-        <v>(56% slower)</v>
-      </c>
-      <c r="O5">
-        <f>ROUND(VLOOKUP(CONCATENATE($H5,O$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),0)</f>
-        <v>37723</v>
-      </c>
-      <c r="P5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O5" t="e">
+        <f>ROUND(VLOOKUP(CONCATENATE($H5,O$1),テーブル1345678[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P5" t="e">
         <f t="shared" si="1"/>
-        <v>(55% slower)</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" t="str">
-        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
-        <v>jDBIInsertMultiRow</v>
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
       </c>
       <c r="D6">
-        <v>37722.563239000003</v>
+        <v>21897.995279999999</v>
       </c>
       <c r="E6">
-        <v>1171.8946759999999</v>
+        <v>2041.5094939999999</v>
       </c>
       <c r="H6" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="2">
-        <f>ROUND(VLOOKUP(CONCATENATE($H6,I$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),1)</f>
-        <v>44.2</v>
-      </c>
-      <c r="J6" t="str">
+      <c r="I6" s="2" t="e">
+        <f>ROUND(VLOOKUP(CONCATENATE($H6,I$1),テーブル1345678[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J6" t="e">
         <f t="shared" si="0"/>
-        <v>(905% slower)</v>
+        <v>#N/A</v>
       </c>
       <c r="K6" s="2"/>
-      <c r="M6">
-        <f>ROUND(VLOOKUP(CONCATENATE($H6,M$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),0)</f>
-        <v>14440</v>
-      </c>
-      <c r="N6" t="str">
+      <c r="M6" t="e">
+        <f>ROUND(VLOOKUP(CONCATENATE($H6,M$1),テーブル1345678[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N6" t="e">
         <f t="shared" ref="N6:N7" si="2">"(" &amp;ROUND((M6-M$2)/M$2*100,0)&amp;"% slower)"</f>
-        <v>(309% slower)</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" t="str">
-        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
-        <v>jDBIInsertOne</v>
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
       </c>
       <c r="D7">
-        <v>12.715870000000001</v>
+        <v>5.9519900000000003</v>
       </c>
       <c r="E7">
-        <v>0.355549</v>
+        <v>0.158744</v>
       </c>
       <c r="H7" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="2">
-        <f>ROUND(VLOOKUP(CONCATENATE($H7,I$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),1)</f>
-        <v>10.199999999999999</v>
-      </c>
-      <c r="J7" t="str">
+      <c r="I7" s="2" t="e">
+        <f>ROUND(VLOOKUP(CONCATENATE($H7,I$1),テーブル1345678[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J7" t="e">
         <f t="shared" si="0"/>
-        <v>(132% slower)</v>
+        <v>#N/A</v>
       </c>
       <c r="K7" s="2"/>
-      <c r="M7">
-        <f>ROUND(VLOOKUP(CONCATENATE($H7,M$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),0)</f>
-        <v>10440</v>
-      </c>
-      <c r="N7" t="str">
+      <c r="M7" t="e">
+        <f>ROUND(VLOOKUP(CONCATENATE($H7,M$1),テーブル1345678[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N7" t="e">
         <f t="shared" si="2"/>
-        <v>(196% slower)</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="str">
-        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
-        <v>jDBIReadAll</v>
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
       </c>
       <c r="D8">
-        <v>5486.9310809999997</v>
+        <v>3218.7307489999998</v>
       </c>
       <c r="E8">
-        <v>504.04466500000001</v>
+        <v>100.890703</v>
       </c>
       <c r="H8" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="2">
-        <f>ROUND(VLOOKUP(CONCATENATE($H8,I$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),1)</f>
-        <v>9.1</v>
-      </c>
-      <c r="J8" t="str">
+      <c r="I8" s="2" t="e">
+        <f>ROUND(VLOOKUP(CONCATENATE($H8,I$1),テーブル1345678[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J8" t="e">
         <f t="shared" si="0"/>
-        <v>(107% slower)</v>
+        <v>#N/A</v>
       </c>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="str">
-        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
-        <v>jDBIReadOne</v>
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
       </c>
       <c r="D9">
-        <v>17.015643000000001</v>
+        <v>3.758038</v>
       </c>
       <c r="E9">
-        <v>0.59322600000000003</v>
+        <v>5.2198000000000001E-2</v>
       </c>
       <c r="I9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="str">
-        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
-        <v>jOOQReadAll</v>
-      </c>
-      <c r="D10">
-        <v>14440.320627999999</v>
-      </c>
-      <c r="E10">
-        <v>269.76902799999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="str">
-        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
-        <v>jOOQReadOne</v>
-      </c>
-      <c r="D11">
-        <v>44.217444</v>
-      </c>
-      <c r="E11">
-        <v>1.3596839999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="str">
-        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
-        <v>myBatisReadAll</v>
-      </c>
-      <c r="D12">
-        <v>10439.739573000001</v>
-      </c>
-      <c r="E12">
-        <v>338.812389</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="str">
-        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
-        <v>myBatisReadOne</v>
-      </c>
-      <c r="D13">
-        <v>10.229937</v>
-      </c>
-      <c r="E13">
-        <v>0.166439</v>
-      </c>
-    </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" t="str">
-        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
-        <v>sormInsertMultiRow</v>
-      </c>
-      <c r="D14">
-        <v>21580.075761</v>
-      </c>
-      <c r="E14">
-        <v>1684.887156</v>
-      </c>
       <c r="H14" t="s">
         <v>16</v>
       </c>
@@ -22900,22 +26478,6 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" t="str">
-        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
-        <v>sormInsertOne</v>
-      </c>
-      <c r="D15">
-        <v>6.0739270000000003</v>
-      </c>
-      <c r="E15">
-        <v>0.20077700000000001</v>
-      </c>
       <c r="H15" t="s">
         <v>25</v>
       </c>
@@ -22925,34 +26487,18 @@
       </c>
       <c r="J15" t="str">
         <f>_xlfn.CONCAT(TEXT(K2,".0")," ",L2)</f>
-        <v xml:space="preserve">5.6 </v>
+        <v xml:space="preserve">5.4 </v>
       </c>
       <c r="K15" t="str">
         <f>_xlfn.CONCAT(M2," ",N2)</f>
-        <v xml:space="preserve">3528 </v>
+        <v xml:space="preserve">3427 </v>
       </c>
       <c r="L15" t="str">
         <f>_xlfn.CONCAT(O2," ",P2)</f>
-        <v xml:space="preserve">24312 </v>
+        <v xml:space="preserve">23642 </v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="str">
-        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
-        <v>sormReadAll</v>
-      </c>
-      <c r="D16">
-        <v>3175.2345570000002</v>
-      </c>
-      <c r="E16">
-        <v>94.125283999999994</v>
-      </c>
       <c r="H16" t="s">
         <v>30</v>
       </c>
@@ -22962,180 +26508,100 @@
       </c>
       <c r="J16" t="str">
         <f t="shared" ref="J16:J18" si="4">_xlfn.CONCAT(TEXT(K3,".0")," ",L3)</f>
-        <v>6.1 (9% slower)</v>
+        <v>6.0 (11% slower)</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" ref="K16:K20" si="5">_xlfn.CONCAT(M3," ",N3)</f>
-        <v>3175 (-10% slower)</v>
+        <v>3219 (-6% slower)</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" ref="L16:L18" si="6">_xlfn.CONCAT(O3," ",P3)</f>
-        <v>21580 (-11% slower)</v>
+        <v>21898 (-7% slower)</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" t="str">
-        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
-        <v>sormReadOne</v>
-      </c>
-      <c r="D17">
-        <v>3.8410449999999998</v>
-      </c>
-      <c r="E17">
-        <v>0.12715599999999999</v>
-      </c>
       <c r="H17" t="s">
         <v>26</v>
       </c>
-      <c r="I17" t="str">
+      <c r="I17" t="e">
         <f t="shared" si="3"/>
-        <v>6.5 (48% slower)</v>
-      </c>
-      <c r="J17" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="J17" t="e">
         <f t="shared" si="4"/>
-        <v>9.7 (73% slower)</v>
-      </c>
-      <c r="K17" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="K17" t="e">
         <f t="shared" si="5"/>
-        <v>3871 (10% slower)</v>
-      </c>
-      <c r="L17" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L17" t="e">
         <f t="shared" si="6"/>
-        <v>42668 (76% slower)</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" t="str">
-        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
-        <v>springJdbcTemplateReadOne</v>
-      </c>
-      <c r="D18">
-        <v>9.060473</v>
-      </c>
-      <c r="E18">
-        <v>0.32297900000000002</v>
-      </c>
       <c r="H18" t="s">
         <v>27</v>
       </c>
-      <c r="I18" t="str">
+      <c r="I18" t="e">
         <f t="shared" si="3"/>
-        <v>17.0 (286% slower)</v>
-      </c>
-      <c r="J18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="J18" t="e">
         <f t="shared" si="4"/>
-        <v>12.7 (127% slower)</v>
-      </c>
-      <c r="K18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="K18" t="e">
         <f t="shared" si="5"/>
-        <v>5487 (56% slower)</v>
-      </c>
-      <c r="L18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L18" t="e">
         <f t="shared" si="6"/>
-        <v>37723 (55% slower)</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" t="str">
-        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
-        <v>sql2oInsertMultiRow</v>
-      </c>
-      <c r="D19">
-        <v>42668.089798000001</v>
-      </c>
-      <c r="E19">
-        <v>1324.6876319999999</v>
-      </c>
       <c r="H19" t="s">
         <v>21</v>
       </c>
-      <c r="I19" t="str">
+      <c r="I19" t="e">
         <f t="shared" si="3"/>
-        <v>44.2 (905% slower)</v>
+        <v>#N/A</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" ref="J19:J22" si="7">_xlfn.CONCAT(K6," ",L6)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K19" t="str">
+      <c r="K19" t="e">
         <f t="shared" si="5"/>
-        <v>14440 (309% slower)</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" t="str">
-        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
-        <v>sql2oInsertOne</v>
-      </c>
-      <c r="D20">
-        <v>9.6568500000000004</v>
-      </c>
-      <c r="E20">
-        <v>0.168763</v>
-      </c>
       <c r="H20" t="s">
         <v>22</v>
       </c>
-      <c r="I20" t="str">
+      <c r="I20" t="e">
         <f t="shared" si="3"/>
-        <v>10.2 (132% slower)</v>
+        <v>#N/A</v>
       </c>
       <c r="J20" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K20" t="str">
+      <c r="K20" t="e">
         <f t="shared" si="5"/>
-        <v>10440 (196% slower)</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" t="str">
-        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
-        <v>sql2oReadAll</v>
-      </c>
-      <c r="D21">
-        <v>3871.3733360000001</v>
-      </c>
-      <c r="E21">
-        <v>161.72050200000001</v>
-      </c>
       <c r="H21" t="s">
         <v>31</v>
       </c>
-      <c r="I21" t="str">
+      <c r="I21" t="e">
         <f t="shared" si="3"/>
-        <v>9.1 (107% slower)</v>
+        <v>#N/A</v>
       </c>
       <c r="J21" t="str">
         <f t="shared" si="7"/>
@@ -23143,22 +26609,6 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" t="str">
-        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
-        <v>sql2oReadOne</v>
-      </c>
-      <c r="D22">
-        <v>6.5020759999999997</v>
-      </c>
-      <c r="E22">
-        <v>0.17773700000000001</v>
-      </c>
       <c r="J22" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
@@ -23171,12 +26621,12 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.4">
@@ -23217,15 +26667,15 @@
       </c>
       <c r="J29" s="3">
         <f>K2</f>
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="K29">
         <f>M2</f>
-        <v>3528</v>
+        <v>3427</v>
       </c>
       <c r="L29">
         <f>O2</f>
-        <v>24312</v>
+        <v>23642</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.4">
@@ -23241,15 +26691,15 @@
       </c>
       <c r="J30" s="3">
         <f t="shared" ref="J30:J35" si="9">K3</f>
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="K30">
         <f t="shared" ref="K30:K35" si="10">M3</f>
-        <v>3175</v>
+        <v>3219</v>
       </c>
       <c r="L30">
         <f t="shared" ref="L30:L35" si="11">O3</f>
-        <v>21580</v>
+        <v>21898</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.4">
@@ -23259,21 +26709,21 @@
       <c r="H31" t="s">
         <v>26</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="2" t="e">
         <f t="shared" si="8"/>
-        <v>6.5</v>
-      </c>
-      <c r="J31" s="3">
+        <v>#N/A</v>
+      </c>
+      <c r="J31" s="3" t="e">
         <f t="shared" si="9"/>
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="K31">
+        <v>#N/A</v>
+      </c>
+      <c r="K31" t="e">
         <f t="shared" si="10"/>
-        <v>3871</v>
-      </c>
-      <c r="L31">
+        <v>#N/A</v>
+      </c>
+      <c r="L31" t="e">
         <f t="shared" si="11"/>
-        <v>42668</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.4">
@@ -23283,21 +26733,21 @@
       <c r="H32" t="s">
         <v>27</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="2" t="e">
         <f t="shared" si="8"/>
-        <v>17</v>
-      </c>
-      <c r="J32" s="3">
+        <v>#N/A</v>
+      </c>
+      <c r="J32" s="3" t="e">
         <f t="shared" si="9"/>
-        <v>12.7</v>
-      </c>
-      <c r="K32">
+        <v>#N/A</v>
+      </c>
+      <c r="K32" t="e">
         <f t="shared" si="10"/>
-        <v>5487</v>
-      </c>
-      <c r="L32">
+        <v>#N/A</v>
+      </c>
+      <c r="L32" t="e">
         <f t="shared" si="11"/>
-        <v>37723</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.4">
@@ -23307,17 +26757,17 @@
       <c r="H33" t="s">
         <v>21</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="2" t="e">
         <f t="shared" si="8"/>
-        <v>44.2</v>
+        <v>#N/A</v>
       </c>
       <c r="J33" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K33">
+      <c r="K33" t="e">
         <f t="shared" si="10"/>
-        <v>14440</v>
+        <v>#N/A</v>
       </c>
       <c r="L33">
         <f t="shared" si="11"/>
@@ -23328,17 +26778,17 @@
       <c r="H34" t="s">
         <v>22</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="2" t="e">
         <f t="shared" si="8"/>
-        <v>10.199999999999999</v>
+        <v>#N/A</v>
       </c>
       <c r="J34" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K34">
+      <c r="K34" t="e">
         <f t="shared" si="10"/>
-        <v>10440</v>
+        <v>#N/A</v>
       </c>
       <c r="L34">
         <f t="shared" si="11"/>
@@ -23349,9 +26799,9 @@
       <c r="H35" t="s">
         <v>31</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="2" t="e">
         <f t="shared" si="8"/>
-        <v>9.1</v>
+        <v>#N/A</v>
       </c>
       <c r="J35" s="3">
         <f t="shared" si="9"/>
@@ -23382,6 +26832,971 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B0B8B75-6F0E-4753-BBED-797AF946B2F7}">
+  <dimension ref="A1:P36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="5.625" customWidth="1"/>
+    <col min="8" max="8" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.625" customWidth="1"/>
+    <col min="15" max="15" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="str">
+        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
+        <v>handCodedInsertMultiRow</v>
+      </c>
+      <c r="D2">
+        <v>24311.630406</v>
+      </c>
+      <c r="E2">
+        <v>1958.469106</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2">
+        <f>ROUND(VLOOKUP(CONCATENATE($H2,I$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K2" s="2">
+        <f>ROUND(VLOOKUP(CONCATENATE($H2,K$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>5.6</v>
+      </c>
+      <c r="M2">
+        <f>ROUND(VLOOKUP(CONCATENATE($H2,M$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>3528</v>
+      </c>
+      <c r="O2">
+        <f>ROUND(VLOOKUP(CONCATENATE($H2,O$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>24312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="str">
+        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
+        <v>handCodedInsertOne</v>
+      </c>
+      <c r="D3">
+        <v>5.5983700000000001</v>
+      </c>
+      <c r="E3">
+        <v>8.2034999999999997E-2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="2">
+        <f>ROUND(VLOOKUP(CONCATENATE($H3,I$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>3.8</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J8" si="0">"(" &amp;ROUND((I3-I$2)/I$2*100,0)&amp;"% slower)"</f>
+        <v>(-14% slower)</v>
+      </c>
+      <c r="K3" s="2">
+        <f>ROUND(VLOOKUP(CONCATENATE($H3,K$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>6.1</v>
+      </c>
+      <c r="L3" t="str">
+        <f>"(" &amp;ROUND((K3-K$2)/K$2*100,0)&amp;"% slower)"</f>
+        <v>(9% slower)</v>
+      </c>
+      <c r="M3">
+        <f>ROUND(VLOOKUP(CONCATENATE($H3,M$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>3175</v>
+      </c>
+      <c r="N3" t="str">
+        <f>"(" &amp;ROUND((M3-M$2)/M$2*100,0)&amp;"% slower)"</f>
+        <v>(-10% slower)</v>
+      </c>
+      <c r="O3">
+        <f>ROUND(VLOOKUP(CONCATENATE($H3,O$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>21580</v>
+      </c>
+      <c r="P3" t="str">
+        <f>"(" &amp;ROUND((O3-O$2)/O$2*100,0)&amp;"% slower)"</f>
+        <v>(-11% slower)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="str">
+        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
+        <v>handCodedReadAll</v>
+      </c>
+      <c r="D4">
+        <v>3527.6194300000002</v>
+      </c>
+      <c r="E4">
+        <v>29.259702999999998</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="2">
+        <f>ROUND(VLOOKUP(CONCATENATE($H4,I$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>6.5</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>(48% slower)</v>
+      </c>
+      <c r="K4" s="2">
+        <f>ROUND(VLOOKUP(CONCATENATE($H4,K$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="L4" t="str">
+        <f>"(" &amp;ROUND((K4-K$2)/K$2*100,0)&amp;"% slower)"</f>
+        <v>(73% slower)</v>
+      </c>
+      <c r="M4">
+        <f>ROUND(VLOOKUP(CONCATENATE($H4,M$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>3871</v>
+      </c>
+      <c r="N4" t="str">
+        <f>"(" &amp;ROUND((M4-M$2)/M$2*100,0)&amp;"% slower)"</f>
+        <v>(10% slower)</v>
+      </c>
+      <c r="O4">
+        <f>ROUND(VLOOKUP(CONCATENATE($H4,O$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>42668</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" ref="P4:P5" si="1">"(" &amp;ROUND((O4-O$2)/O$2*100,0)&amp;"% slower)"</f>
+        <v>(76% slower)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="str">
+        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
+        <v>handCodedReadOne</v>
+      </c>
+      <c r="D5">
+        <v>4.4011610000000001</v>
+      </c>
+      <c r="E5">
+        <v>9.2593999999999996E-2</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="2">
+        <f>ROUND(VLOOKUP(CONCATENATE($H5,I$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>17</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>(286% slower)</v>
+      </c>
+      <c r="K5" s="2">
+        <f>ROUND(VLOOKUP(CONCATENATE($H5,K$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>12.7</v>
+      </c>
+      <c r="L5" t="str">
+        <f>"(" &amp;ROUND((K5-K$2)/K$2*100,0)&amp;"% slower)"</f>
+        <v>(127% slower)</v>
+      </c>
+      <c r="M5">
+        <f>ROUND(VLOOKUP(CONCATENATE($H5,M$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>5487</v>
+      </c>
+      <c r="N5" t="str">
+        <f>"(" &amp;ROUND((M5-M$2)/M$2*100,0)&amp;"% slower)"</f>
+        <v>(56% slower)</v>
+      </c>
+      <c r="O5">
+        <f>ROUND(VLOOKUP(CONCATENATE($H5,O$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>37723</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="1"/>
+        <v>(55% slower)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="str">
+        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
+        <v>jDBIInsertMultiRow</v>
+      </c>
+      <c r="D6">
+        <v>37722.563239000003</v>
+      </c>
+      <c r="E6">
+        <v>1171.8946759999999</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="2">
+        <f>ROUND(VLOOKUP(CONCATENATE($H6,I$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>44.2</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>(905% slower)</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="M6">
+        <f>ROUND(VLOOKUP(CONCATENATE($H6,M$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>14440</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" ref="N6:N7" si="2">"(" &amp;ROUND((M6-M$2)/M$2*100,0)&amp;"% slower)"</f>
+        <v>(309% slower)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="str">
+        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
+        <v>jDBIInsertOne</v>
+      </c>
+      <c r="D7">
+        <v>12.715870000000001</v>
+      </c>
+      <c r="E7">
+        <v>0.355549</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="2">
+        <f>ROUND(VLOOKUP(CONCATENATE($H7,I$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>(132% slower)</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="M7">
+        <f>ROUND(VLOOKUP(CONCATENATE($H7,M$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),0)</f>
+        <v>10440</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="2"/>
+        <v>(196% slower)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="str">
+        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
+        <v>jDBIReadAll</v>
+      </c>
+      <c r="D8">
+        <v>5486.9310809999997</v>
+      </c>
+      <c r="E8">
+        <v>504.04466500000001</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="2">
+        <f>ROUND(VLOOKUP(CONCATENATE($H8,I$1),テーブル134567[[#All],[lib and task]:[error]],2,FALSE),1)</f>
+        <v>9.1</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>(107% slower)</v>
+      </c>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="str">
+        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
+        <v>jDBIReadOne</v>
+      </c>
+      <c r="D9">
+        <v>17.015643000000001</v>
+      </c>
+      <c r="E9">
+        <v>0.59322600000000003</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="str">
+        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
+        <v>jOOQReadAll</v>
+      </c>
+      <c r="D10">
+        <v>14440.320627999999</v>
+      </c>
+      <c r="E10">
+        <v>269.76902799999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="str">
+        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
+        <v>jOOQReadOne</v>
+      </c>
+      <c r="D11">
+        <v>44.217444</v>
+      </c>
+      <c r="E11">
+        <v>1.3596839999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="str">
+        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
+        <v>myBatisReadAll</v>
+      </c>
+      <c r="D12">
+        <v>10439.739573000001</v>
+      </c>
+      <c r="E12">
+        <v>338.812389</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="str">
+        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
+        <v>myBatisReadOne</v>
+      </c>
+      <c r="D13">
+        <v>10.229937</v>
+      </c>
+      <c r="E13">
+        <v>0.166439</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="str">
+        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
+        <v>sormInsertMultiRow</v>
+      </c>
+      <c r="D14">
+        <v>21580.075761</v>
+      </c>
+      <c r="E14">
+        <v>1684.887156</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="str">
+        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
+        <v>sormInsertOne</v>
+      </c>
+      <c r="D15">
+        <v>6.0739270000000003</v>
+      </c>
+      <c r="E15">
+        <v>0.20077700000000001</v>
+      </c>
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" t="str">
+        <f>_xlfn.CONCAT(TEXT(I2,".0")," ",J2)</f>
+        <v xml:space="preserve">4.4 </v>
+      </c>
+      <c r="J15" t="str">
+        <f>_xlfn.CONCAT(TEXT(K2,".0")," ",L2)</f>
+        <v xml:space="preserve">5.6 </v>
+      </c>
+      <c r="K15" t="str">
+        <f>_xlfn.CONCAT(M2," ",N2)</f>
+        <v xml:space="preserve">3528 </v>
+      </c>
+      <c r="L15" t="str">
+        <f>_xlfn.CONCAT(O2," ",P2)</f>
+        <v xml:space="preserve">24312 </v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="str">
+        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
+        <v>sormReadAll</v>
+      </c>
+      <c r="D16">
+        <v>3175.2345570000002</v>
+      </c>
+      <c r="E16">
+        <v>94.125283999999994</v>
+      </c>
+      <c r="H16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" ref="I16:I21" si="3">_xlfn.CONCAT(TEXT(I3,".0")," ",J3)</f>
+        <v>3.8 (-14% slower)</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" ref="J16:J18" si="4">_xlfn.CONCAT(TEXT(K3,".0")," ",L3)</f>
+        <v>6.1 (9% slower)</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" ref="K16:K20" si="5">_xlfn.CONCAT(M3," ",N3)</f>
+        <v>3175 (-10% slower)</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" ref="L16:L18" si="6">_xlfn.CONCAT(O3," ",P3)</f>
+        <v>21580 (-11% slower)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="str">
+        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
+        <v>sormReadOne</v>
+      </c>
+      <c r="D17">
+        <v>3.8410449999999998</v>
+      </c>
+      <c r="E17">
+        <v>0.12715599999999999</v>
+      </c>
+      <c r="H17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="3"/>
+        <v>6.5 (48% slower)</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="4"/>
+        <v>9.7 (73% slower)</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="5"/>
+        <v>3871 (10% slower)</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="6"/>
+        <v>42668 (76% slower)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="str">
+        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
+        <v>springJdbcTemplateReadOne</v>
+      </c>
+      <c r="D18">
+        <v>9.060473</v>
+      </c>
+      <c r="E18">
+        <v>0.32297900000000002</v>
+      </c>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="3"/>
+        <v>17.0 (286% slower)</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="4"/>
+        <v>12.7 (127% slower)</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="5"/>
+        <v>5487 (56% slower)</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="6"/>
+        <v>37723 (55% slower)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="str">
+        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
+        <v>sql2oInsertMultiRow</v>
+      </c>
+      <c r="D19">
+        <v>42668.089798000001</v>
+      </c>
+      <c r="E19">
+        <v>1324.6876319999999</v>
+      </c>
+      <c r="H19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="3"/>
+        <v>44.2 (905% slower)</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" ref="J19:J22" si="7">_xlfn.CONCAT(K6," ",L6)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="5"/>
+        <v>14440 (309% slower)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="str">
+        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
+        <v>sql2oInsertOne</v>
+      </c>
+      <c r="D20">
+        <v>9.6568500000000004</v>
+      </c>
+      <c r="E20">
+        <v>0.168763</v>
+      </c>
+      <c r="H20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="3"/>
+        <v>10.2 (132% slower)</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="5"/>
+        <v>10440 (196% slower)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="str">
+        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
+        <v>sql2oReadAll</v>
+      </c>
+      <c r="D21">
+        <v>3871.3733360000001</v>
+      </c>
+      <c r="E21">
+        <v>161.72050200000001</v>
+      </c>
+      <c r="H21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="3"/>
+        <v>9.1 (107% slower)</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="str">
+        <f>CONCATENATE(テーブル134567[[#This Row],[lib]],テーブル134567[[#This Row],[task]])</f>
+        <v>sql2oReadOne</v>
+      </c>
+      <c r="D22">
+        <v>6.5020759999999997</v>
+      </c>
+      <c r="E22">
+        <v>0.17773700000000001</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="2">
+        <f>I2</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J29" s="3">
+        <f>K2</f>
+        <v>5.6</v>
+      </c>
+      <c r="K29">
+        <f>M2</f>
+        <v>3528</v>
+      </c>
+      <c r="L29">
+        <f>O2</f>
+        <v>24312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" s="2">
+        <f t="shared" ref="I30:I35" si="8">I3</f>
+        <v>3.8</v>
+      </c>
+      <c r="J30" s="3">
+        <f t="shared" ref="J30:J35" si="9">K3</f>
+        <v>6.1</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ref="K30:K35" si="10">M3</f>
+        <v>3175</v>
+      </c>
+      <c r="L30">
+        <f t="shared" ref="L30:L35" si="11">O3</f>
+        <v>21580</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="8"/>
+        <v>6.5</v>
+      </c>
+      <c r="J31" s="3">
+        <f t="shared" si="9"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="10"/>
+        <v>3871</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="11"/>
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32" s="2">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="J32" s="3">
+        <f t="shared" si="9"/>
+        <v>12.7</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="10"/>
+        <v>5487</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="11"/>
+        <v>37723</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="2">
+        <f t="shared" si="8"/>
+        <v>44.2</v>
+      </c>
+      <c r="J33" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="10"/>
+        <v>14440</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H34" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" s="2">
+        <f t="shared" si="8"/>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="J34" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="10"/>
+        <v>10440</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H35" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" s="2">
+        <f t="shared" si="8"/>
+        <v>9.1</v>
+      </c>
+      <c r="J35" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="I36" s="2"/>
+      <c r="J36" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D5D3ACD-9F98-4EB6-8D76-E5E3AF866B50}">
   <dimension ref="A1:P36"/>
   <sheetViews>
@@ -24346,7 +28761,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561FE2CA-532F-468B-B85D-2BC2BE90541A}">
   <dimension ref="A1:P36"/>
   <sheetViews>
@@ -25325,7 +29740,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AEA92FB-C8A3-4D71-8FD1-F1E3E1533838}">
   <dimension ref="A1:P36"/>
   <sheetViews>
@@ -26304,7 +30719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F61CF37D-7215-4EC5-A064-DD48DD457397}">
   <dimension ref="A1:P36"/>
   <sheetViews>
@@ -27283,7 +31698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35445E73-0859-4F64-B8BC-312647143468}">
   <dimension ref="A1:P36"/>
   <sheetViews>
